--- a/京东金融.xlsx
+++ b/京东金融.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -513,2711 +513,2711 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>165520</v>
+        <v>001270</v>
       </c>
       <c r="B2" t="str">
-        <v>中信保诚中证800有色指数(LOF)A</v>
+        <v>英大灵活配置A</v>
       </c>
       <c r="C2" s="1">
-        <v>84.78</v>
+        <v>107.35</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.48</v>
+        <v>6.45</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.0056</v>
+        <v>0.0601</v>
       </c>
       <c r="F2" s="1">
-        <v>7.56</v>
+        <v>7.35</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0979</v>
+        <v>0.0735</v>
       </c>
       <c r="H2" s="1">
-        <v>7.08</v>
+        <v>13.8</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0979</v>
+        <v>0.0735</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.48</v>
+        <v>8.72</v>
       </c>
       <c r="K2" s="1">
-        <v>7.08</v>
+        <v>13.8</v>
       </c>
       <c r="L2" s="1">
-        <v>7.08</v>
+        <v>13.8</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0065</v>
+        <v>0.0082</v>
       </c>
       <c r="N2" s="3">
-        <v>29.62</v>
+        <v>73.55</v>
       </c>
       <c r="O2" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2">
-        <v>-0.0056</v>
+        <v>0.0601</v>
       </c>
       <c r="Q2" s="5">
-        <v>2.8462</v>
+        <v>1.5472</v>
       </c>
       <c r="R2" s="5">
-        <v>2.607</v>
+        <v>1.3596</v>
       </c>
       <c r="S2" s="2">
         <v/>
       </c>
       <c r="T2" s="2">
-        <v>0.1317</v>
+        <v>0.0912</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2285</v>
+        <v>-0.0918</v>
       </c>
       <c r="V2" s="2">
-        <v>0.6947</v>
+        <v>0.3117</v>
       </c>
       <c r="W2" s="2">
-        <v>0.8726</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>010341</v>
+        <v>012863</v>
       </c>
       <c r="B3" t="str">
-        <v>招商产业精选股票A</v>
+        <v>汇添富中证电池主题ETF发起式联接C</v>
       </c>
       <c r="C3" s="1">
-        <v>307.48</v>
+        <v>214.2</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.64</v>
+        <v>3.53</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.0021</v>
+        <v>0.0165</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.04</v>
+        <v>-0.98</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.0001</v>
+        <v>-0.0046</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.68</v>
+        <v>2.54</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.0001</v>
+        <v>-0.0046</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.64</v>
+        <v>-1.35</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.68</v>
+        <v>6.57</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.68</v>
+        <v>2.54</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0236</v>
+        <v>0.0164</v>
       </c>
       <c r="N3" s="3">
-        <v>256.66</v>
+        <v>267.88</v>
       </c>
       <c r="O3" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.0021</v>
+        <v>0.0165</v>
       </c>
       <c r="Q3" s="5">
-        <v>1.1955</v>
+        <v>0.8128</v>
       </c>
       <c r="R3" s="5">
-        <v>1.1982</v>
+        <v>0.8033</v>
       </c>
       <c r="S3" s="2">
-        <v>0.0001</v>
+        <v>0.0046</v>
       </c>
       <c r="T3" s="2">
-        <v>0.0234</v>
+        <v>0.0039</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.0307</v>
+        <v>-0.0126</v>
       </c>
       <c r="V3" s="2">
-        <v>0.0581</v>
+        <v>0.604</v>
       </c>
       <c r="W3" s="2">
-        <v>0.1297</v>
+        <v>0.5884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>010052</v>
+        <v>257060</v>
       </c>
       <c r="B4" t="str">
-        <v>长城久嘉创新成长混合C</v>
+        <v>国联安上证商品ETF联接A</v>
       </c>
       <c r="C4" s="1">
-        <v>77.36</v>
+        <v>374.61</v>
       </c>
       <c r="D4" s="1">
-        <v>0.55</v>
+        <v>3.21</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0071</v>
+        <v>0.0086</v>
       </c>
       <c r="F4" s="1">
-        <v>7.36</v>
+        <v>13.96</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1052</v>
+        <v>0.0387</v>
       </c>
       <c r="H4" s="1">
-        <v>7.91</v>
+        <v>17.17</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1052</v>
+        <v>0.0387</v>
       </c>
       <c r="J4" s="1">
-        <v>0.55</v>
+        <v>2.7</v>
       </c>
       <c r="K4" s="1">
-        <v>7.91</v>
+        <v>19.18</v>
       </c>
       <c r="L4" s="1">
-        <v>7.91</v>
+        <v>17.17</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0059</v>
+        <v>0.0287</v>
       </c>
       <c r="N4" s="3">
-        <v>31.18</v>
+        <v>250.51</v>
       </c>
       <c r="O4" s="4">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0071</v>
+        <v>0.0086</v>
       </c>
       <c r="Q4" s="5">
-        <v>2.4988</v>
+        <v>1.5082</v>
       </c>
       <c r="R4" s="5">
-        <v>2.245</v>
+        <v>1.4397</v>
       </c>
       <c r="S4" s="2">
         <v/>
       </c>
       <c r="T4" s="2">
-        <v>0.3264</v>
+        <v>0.0528</v>
       </c>
       <c r="U4" s="2">
-        <v>0.352</v>
+        <v>0.1023</v>
       </c>
       <c r="V4" s="2">
-        <v>0.5882</v>
+        <v>0.3458</v>
       </c>
       <c r="W4" s="2">
-        <v>0.6689</v>
+        <v>0.3635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>001270</v>
+        <v>022327</v>
       </c>
       <c r="B5" t="str">
-        <v>英大灵活配置A</v>
+        <v>宏利高端装备股票A</v>
       </c>
       <c r="C5" s="1">
-        <v>85.07</v>
+        <v>139.29</v>
       </c>
       <c r="D5" s="1">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0265</v>
+        <v>0.022</v>
       </c>
       <c r="F5" s="1">
-        <v>5.07</v>
+        <v>9.29</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0634</v>
+        <v>0.0715</v>
       </c>
       <c r="H5" s="1">
-        <v>7.33</v>
+        <v>12.35</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0634</v>
+        <v>0.0715</v>
       </c>
       <c r="J5" s="1">
-        <v>2.25</v>
+        <v>12.35</v>
       </c>
       <c r="K5" s="1">
-        <v>7.33</v>
+        <v>12.35</v>
       </c>
       <c r="L5" s="1">
-        <v>7.33</v>
+        <v>12.35</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0065</v>
+        <v>0.0107</v>
       </c>
       <c r="N5" s="3">
-        <v>59.68</v>
+        <v>94.89</v>
       </c>
       <c r="O5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0265</v>
+        <v>0.022</v>
       </c>
       <c r="Q5" s="5">
-        <v>1.4632</v>
+        <v>1.5002</v>
       </c>
       <c r="R5" s="5">
-        <v>1.3405</v>
+        <v>1.37</v>
       </c>
       <c r="S5" s="2">
         <v/>
       </c>
       <c r="T5" s="2">
-        <v>0.0833</v>
+        <v>0.0911</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.087</v>
+        <v>0.1548</v>
       </c>
       <c r="V5" s="2">
-        <v>0.2916</v>
+        <v>0.4272</v>
       </c>
       <c r="W5" s="2">
-        <v>0.1825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>020114</v>
+        <v>013048</v>
       </c>
       <c r="B6" t="str">
-        <v>易方达中证沪港深500ETF联接发起式C</v>
+        <v>富国中证新能源汽车指数C</v>
       </c>
       <c r="C6" s="1">
-        <v>78.86</v>
+        <v>181.05</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.09</v>
+        <v>2.92</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.0011</v>
+        <v>0.0161</v>
       </c>
       <c r="F6" s="1">
-        <v>0.15</v>
+        <v>5.4</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0019</v>
+        <v>0.0307</v>
       </c>
       <c r="H6" s="1">
-        <v>0.06</v>
+        <v>8.32</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0019</v>
+        <v>0.0307</v>
       </c>
       <c r="J6" s="1">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="K6" s="1">
-        <v>0.06</v>
+        <v>8.32</v>
       </c>
       <c r="L6" s="1">
-        <v>0.06</v>
+        <v>8.32</v>
       </c>
       <c r="M6" s="2">
-        <v>0.006</v>
+        <v>0.0139</v>
       </c>
       <c r="N6" s="3">
-        <v>52.64</v>
+        <v>156.89</v>
       </c>
       <c r="O6" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="2">
-        <v>-0.0011</v>
+        <v>0.0161</v>
       </c>
       <c r="Q6" s="5">
-        <v>1.4964</v>
+        <v>1.1726</v>
       </c>
       <c r="R6" s="5">
-        <v>1.4953</v>
+        <v>1.1196</v>
       </c>
       <c r="S6" s="2">
         <v/>
       </c>
       <c r="T6" s="2">
-        <v>0.0131</v>
+        <v>0.0249</v>
       </c>
       <c r="U6" s="2">
-        <v>0.0029</v>
+        <v>0.0017</v>
       </c>
       <c r="V6" s="2">
-        <v>0.1373</v>
+        <v>0.4407</v>
       </c>
       <c r="W6" s="2">
-        <v>0.2298</v>
+        <v>0.4814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>010391</v>
+        <v>011937</v>
       </c>
       <c r="B7" t="str">
-        <v>易方达战略新兴产业股票A</v>
+        <v>华夏阿尔法精选混合C</v>
       </c>
       <c r="C7" s="1">
-        <v>306.59</v>
+        <v>171.96</v>
       </c>
       <c r="D7" s="1">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0093</v>
+        <v>0.014</v>
       </c>
       <c r="F7" s="1">
-        <v>18.77</v>
+        <v>1.96</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0652</v>
+        <v>0.0115</v>
       </c>
       <c r="H7" s="1">
-        <v>21.64</v>
+        <v>4.36</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0652</v>
+        <v>0.0115</v>
       </c>
       <c r="J7" s="1">
-        <v>2.86</v>
+        <v>2.31</v>
       </c>
       <c r="K7" s="1">
-        <v>25.6</v>
+        <v>4.36</v>
       </c>
       <c r="L7" s="1">
-        <v>21.64</v>
+        <v>4.36</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0235</v>
+        <v>0.0132</v>
       </c>
       <c r="N7" s="3">
-        <v>177.12</v>
+        <v>182.7</v>
       </c>
       <c r="O7" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0093</v>
+        <v>0.014</v>
       </c>
       <c r="Q7" s="5">
-        <v>1.7471</v>
+        <v>0.9543</v>
       </c>
       <c r="R7" s="5">
-        <v>1.625</v>
+        <v>0.9305</v>
       </c>
       <c r="S7" s="2">
         <v/>
       </c>
       <c r="T7" s="2">
-        <v>0.0864</v>
+        <v>0.0128</v>
       </c>
       <c r="U7" s="2">
-        <v>0.0664</v>
+        <v>-0.0809</v>
       </c>
       <c r="V7" s="2">
-        <v>0.8982</v>
+        <v>0.2738</v>
       </c>
       <c r="W7" s="2">
-        <v>1.0126</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>017387</v>
+        <v>004206</v>
       </c>
       <c r="B8" t="str">
-        <v>兴证全球安悦稳健养老一年持有混合(FOF)Y</v>
+        <v>华商元亨混合A</v>
       </c>
       <c r="C8" s="1">
-        <v>84.27</v>
+        <v>255.78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01</v>
+        <v>2.19</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0001</v>
+        <v>0.0086</v>
       </c>
       <c r="F8" s="1">
-        <v>4.27</v>
+        <v>6.32</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0534</v>
+        <v>0.0253</v>
       </c>
       <c r="H8" s="1">
-        <v>4.28</v>
+        <v>8.51</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0534</v>
+        <v>0.0253</v>
       </c>
       <c r="J8" s="1">
-        <v>0.01</v>
+        <v>2.24</v>
       </c>
       <c r="K8" s="1">
-        <v>0.47</v>
+        <v>8.51</v>
       </c>
       <c r="L8" s="1">
-        <v>6.44</v>
+        <v>8.51</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0065</v>
+        <v>0.0196</v>
       </c>
       <c r="N8" s="3">
-        <v>71.53</v>
+        <v>85.62</v>
       </c>
       <c r="O8" s="4">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0001</v>
+        <v>0.0086</v>
       </c>
       <c r="Q8" s="5">
-        <v>1.1782</v>
+        <v>3.013</v>
       </c>
       <c r="R8" s="5">
-        <v>1.1184</v>
+        <v>2.9136</v>
       </c>
       <c r="S8" s="2">
         <v/>
       </c>
       <c r="T8" s="2">
-        <v>0.0095</v>
+        <v>0.0373</v>
       </c>
       <c r="U8" s="2">
-        <v>-0.0003</v>
+        <v>-0.0018</v>
       </c>
       <c r="V8" s="2">
-        <v>0.0543</v>
+        <v>0.5686</v>
       </c>
       <c r="W8" s="2">
-        <v>0.0885</v>
+        <v>0.7848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>519196</v>
+        <v>002179</v>
       </c>
       <c r="B9" t="str">
-        <v>万家新兴蓝筹A</v>
+        <v>华安事件驱动量化混合A</v>
       </c>
       <c r="C9" s="1">
-        <v>509.25</v>
+        <v>355.92</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.55</v>
+        <v>2.17</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.0011</v>
+        <v>0.0061</v>
       </c>
       <c r="F9" s="1">
-        <v>38.86</v>
+        <v>7.03</v>
       </c>
       <c r="G9" s="2">
-        <v>0.0826</v>
+        <v>0.0202</v>
       </c>
       <c r="H9" s="1">
-        <v>38.31</v>
+        <v>9.2</v>
       </c>
       <c r="I9" s="2">
-        <v>0.0826</v>
+        <v>0.0202</v>
       </c>
       <c r="J9" s="1">
-        <v>-0.55</v>
+        <v>2.33</v>
       </c>
       <c r="K9" s="1">
-        <v>37.42</v>
+        <v>9.2</v>
       </c>
       <c r="L9" s="1">
-        <v>38.12</v>
+        <v>9.2</v>
       </c>
       <c r="M9" s="2">
-        <v>0.039</v>
+        <v>0.0273</v>
       </c>
       <c r="N9" s="3">
-        <v>113.54</v>
+        <v>144.39</v>
       </c>
       <c r="O9" s="4">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2">
-        <v>-0.0011</v>
+        <v>0.0061</v>
       </c>
       <c r="Q9" s="5">
-        <v>4.4803</v>
+        <v>2.48</v>
       </c>
       <c r="R9" s="5">
-        <v>4.1429</v>
+        <v>2.4163</v>
       </c>
       <c r="S9" s="2">
         <v/>
       </c>
       <c r="T9" s="2">
-        <v>0.0731</v>
+        <v>0.0284</v>
       </c>
       <c r="U9" s="2">
-        <v>0.0862</v>
+        <v>-0.0068</v>
       </c>
       <c r="V9" s="2">
-        <v>0.8123</v>
+        <v>0.227</v>
       </c>
       <c r="W9" s="2">
-        <v>0.6088</v>
+        <v>0.3499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>519180</v>
+        <v>010341</v>
       </c>
       <c r="B10" t="str">
-        <v>万家180指数A</v>
+        <v>招商产业精选股票A</v>
       </c>
       <c r="C10" s="1">
-        <v>320.85</v>
+        <v>314.36</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.09</v>
+        <v>1.88</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.0003</v>
+        <v>0.006</v>
       </c>
       <c r="F10" s="1">
-        <v>1.26</v>
+        <v>-3.16</v>
       </c>
       <c r="G10" s="2">
-        <v>0.004</v>
+        <v>-0.0099</v>
       </c>
       <c r="H10" s="1">
-        <v>1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="I10" s="2">
-        <v>0.004</v>
+        <v>-0.0099</v>
       </c>
       <c r="J10" s="1">
-        <v>-0.09</v>
+        <v>-1.24</v>
       </c>
       <c r="K10" s="1">
-        <v>1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="L10" s="1">
-        <v>1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0246</v>
+        <v>0.0241</v>
       </c>
       <c r="N10" s="3">
-        <v>274</v>
+        <v>265.06</v>
       </c>
       <c r="O10" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.0003</v>
+        <v>0.006</v>
       </c>
       <c r="Q10" s="5">
-        <v>1.1707</v>
+        <v>1.1931</v>
       </c>
       <c r="R10" s="5">
-        <v>1.1664</v>
+        <v>1.1979</v>
       </c>
       <c r="S10" s="2">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="T10" s="2">
-        <v>0.0266</v>
+        <v>0.0011</v>
       </c>
       <c r="U10" s="2">
-        <v>0.0127</v>
+        <v>-0.0485</v>
       </c>
       <c r="V10" s="2">
-        <v>0.1547</v>
+        <v>0.0505</v>
       </c>
       <c r="W10" s="2">
-        <v>0.1544</v>
+        <v>0.1159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>025833</v>
+        <v>018861</v>
       </c>
       <c r="B11" t="str">
-        <v>天弘中证电网设备主题指数发起C</v>
+        <v>景顺长城量化港股通股票C</v>
       </c>
       <c r="C11" s="1">
-        <v>67.27</v>
+        <v>275.13</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.77</v>
+        <v>1.82</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.0115</v>
+        <v>0.0066</v>
       </c>
       <c r="F11" s="1">
-        <v>2.32</v>
+        <v>-7.07</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0357</v>
+        <v>-0.025</v>
       </c>
       <c r="H11" s="1">
-        <v>1.55</v>
+        <v>-5.24</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0357</v>
+        <v>-0.025</v>
       </c>
       <c r="J11" s="1">
-        <v>-0.77</v>
+        <v>-0.5</v>
       </c>
       <c r="K11" s="1">
-        <v>1.55</v>
+        <v>-5.24</v>
       </c>
       <c r="L11" s="1">
-        <v>1.55</v>
+        <v>-5.24</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0052</v>
+        <v>0.0211</v>
       </c>
       <c r="N11" s="3">
-        <v>61.4</v>
+        <v>243.87</v>
       </c>
       <c r="O11" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.0115</v>
+        <v>0.0066</v>
       </c>
       <c r="Q11" s="5">
-        <v>1.083</v>
+        <v>1.1357</v>
       </c>
       <c r="R11" s="5">
-        <v>1.0578</v>
+        <v>1.1572</v>
       </c>
       <c r="S11" s="2">
-        <v/>
+        <v>0.0257</v>
       </c>
       <c r="T11" s="2">
-        <v>0.0956</v>
+        <v>-0.0187</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>-0.0406</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>0.0738</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>007721</v>
+        <v>020422</v>
       </c>
       <c r="B12" t="str">
-        <v>天弘标普500发起(QDII-FOF)A</v>
+        <v>华夏中证港股通内地金融ETF发起式联接A</v>
       </c>
       <c r="C12" s="1">
-        <v>740.59</v>
+        <v>288.24</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="F12" s="1">
-        <v>27.62</v>
+        <v>1.64</v>
       </c>
       <c r="G12" s="2">
-        <v>0.0387</v>
+        <v>0.0057</v>
       </c>
       <c r="H12" s="1">
-        <v>27.62</v>
+        <v>3.41</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0387</v>
+        <v>0.0057</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K12" s="1">
-        <v>6.46</v>
+        <v>-2.26</v>
       </c>
       <c r="L12" s="1">
-        <v>27.62</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0568</v>
+        <v>0.0221</v>
       </c>
       <c r="N12" s="3">
-        <v>348.56</v>
+        <v>161.37</v>
       </c>
       <c r="O12" s="4">
-        <v>39</v>
+        <v>572</v>
       </c>
       <c r="P12" s="2">
-        <v/>
+        <v>0.0061</v>
       </c>
       <c r="Q12" s="5">
-        <v/>
+        <v>1.7972</v>
       </c>
       <c r="R12" s="5">
-        <v>2.0455</v>
+        <v>1.776</v>
       </c>
       <c r="S12" s="2">
         <v/>
       </c>
       <c r="T12" s="2">
-        <v>0.0175</v>
+        <v>0.0034</v>
       </c>
       <c r="U12" s="2">
-        <v>0.0352</v>
+        <v>0.0529</v>
       </c>
       <c r="V12" s="2">
-        <v>0.1078</v>
+        <v>0.0455</v>
       </c>
       <c r="W12" s="2">
-        <v>0.1167</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>018048</v>
+        <v>010391</v>
       </c>
       <c r="B13" t="str">
-        <v>申万菱信数字产业股票型发起式A</v>
+        <v>易方达战略新兴产业股票A</v>
       </c>
       <c r="C13" s="1">
-        <v>280.11</v>
+        <v>318.14</v>
       </c>
       <c r="D13" s="1">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="E13" s="2">
-        <v>0.0037</v>
+        <v>0.0053</v>
       </c>
       <c r="F13" s="1">
-        <v>-9.91</v>
+        <v>20.32</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.0342</v>
+        <v>0.0682</v>
       </c>
       <c r="H13" s="1">
-        <v>-8.86</v>
+        <v>22.02</v>
       </c>
       <c r="I13" s="2">
-        <v>-0.0342</v>
+        <v>0.0682</v>
       </c>
       <c r="J13" s="1">
-        <v>1.05</v>
+        <v>3.24</v>
       </c>
       <c r="K13" s="1">
-        <v>-8.86</v>
+        <v>25.98</v>
       </c>
       <c r="L13" s="1">
-        <v>-8.86</v>
+        <v>22.02</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0215</v>
+        <v>0.0244</v>
       </c>
       <c r="N13" s="3">
-        <v>245.09</v>
+        <v>182.87</v>
       </c>
       <c r="O13" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0037</v>
+        <v>0.0053</v>
       </c>
       <c r="Q13" s="5">
-        <v>1.1472</v>
+        <v>1.749</v>
       </c>
       <c r="R13" s="5">
-        <v>1.1833</v>
+        <v>1.6286</v>
       </c>
       <c r="S13" s="2">
-        <v>0.0354</v>
+        <v/>
       </c>
       <c r="T13" s="2">
-        <v>-0.0541</v>
+        <v>0.0928</v>
       </c>
       <c r="U13" s="2">
-        <v>-0.0728</v>
+        <v>0.0473</v>
       </c>
       <c r="V13" s="2">
-        <v>0.1324</v>
+        <v>0.8759</v>
       </c>
       <c r="W13" s="2">
-        <v>0.104</v>
+        <v>1.0436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>018495</v>
+        <v>018048</v>
       </c>
       <c r="B14" t="str">
-        <v>融通产业趋势臻选股票C</v>
+        <v>申万菱信数字产业股票型发起式A</v>
       </c>
       <c r="C14" s="1">
-        <v>266.11</v>
+        <v>228.73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.83</v>
+        <v>1.64</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0031</v>
+        <v>0.0072</v>
       </c>
       <c r="F14" s="1">
-        <v>21.23</v>
+        <v>-6.15</v>
       </c>
       <c r="G14" s="2">
-        <v>0.0867</v>
+        <v>-0.0262</v>
       </c>
       <c r="H14" s="1">
-        <v>22.05</v>
+        <v>-4.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0.0867</v>
+        <v>-0.0262</v>
       </c>
       <c r="J14" s="1">
-        <v>0.83</v>
+        <v>2.78</v>
       </c>
       <c r="K14" s="1">
-        <v>22.05</v>
+        <v>-4.5</v>
       </c>
       <c r="L14" s="1">
-        <v>22.05</v>
+        <v>-4.5</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0204</v>
+        <v>0.0176</v>
       </c>
       <c r="N14" s="3">
-        <v>122.09</v>
+        <v>199.14</v>
       </c>
       <c r="O14" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0031</v>
+        <v>0.0072</v>
       </c>
       <c r="Q14" s="5">
-        <v>2.1864</v>
+        <v>1.1569</v>
       </c>
       <c r="R14" s="5">
-        <v>2.0057</v>
+        <v>1.1795</v>
       </c>
       <c r="S14" s="2">
-        <v/>
+        <v>0.0269</v>
       </c>
       <c r="T14" s="2">
-        <v>0.1101</v>
+        <v>-0.0341</v>
       </c>
       <c r="U14" s="2">
-        <v>0.0994</v>
+        <v>-0.0792</v>
       </c>
       <c r="V14" s="2">
-        <v>0.7979</v>
+        <v>0.1438</v>
       </c>
       <c r="W14" s="2">
-        <v>0.9442</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>008811</v>
+        <v>013466</v>
       </c>
       <c r="B15" t="str">
-        <v>鹏华科技创新混合</v>
+        <v>博时智选量化多因子股票C</v>
       </c>
       <c r="C15" s="1">
-        <v>363.61</v>
+        <v>205.22</v>
       </c>
       <c r="D15" s="1">
-        <v>3.91</v>
+        <v>1.6</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0107</v>
+        <v>0.0078</v>
       </c>
       <c r="F15" s="1">
-        <v>12.79</v>
+        <v>-1.59</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0364</v>
+        <v>-0.0077</v>
       </c>
       <c r="H15" s="1">
-        <v>16.7</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="2">
-        <v>0.0364</v>
+        <v>-0.0077</v>
       </c>
       <c r="J15" s="1">
-        <v>3.91</v>
+        <v>1.08</v>
       </c>
       <c r="K15" s="1">
-        <v>26.35</v>
+        <v>0.01</v>
       </c>
       <c r="L15" s="1">
-        <v>16.7</v>
+        <v>0.01</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0279</v>
+        <v>0.0157</v>
       </c>
       <c r="N15" s="3">
-        <v>213.56</v>
+        <v>173.39</v>
       </c>
       <c r="O15" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0107</v>
+        <v>0.0078</v>
       </c>
       <c r="Q15" s="5">
-        <v>1.7209</v>
+        <v>1.1928</v>
       </c>
       <c r="R15" s="5">
-        <v>1.6427</v>
+        <v>1.1927</v>
       </c>
       <c r="S15" s="2">
-        <v/>
+        <v>0.0077</v>
       </c>
       <c r="T15" s="2">
-        <v>0.0627</v>
+        <v>0.012</v>
       </c>
       <c r="U15" s="2">
-        <v>0.0172</v>
+        <v>-0.0528</v>
       </c>
       <c r="V15" s="2">
-        <v>0.2748</v>
+        <v>0.2779</v>
       </c>
       <c r="W15" s="2">
-        <v>0.3307</v>
+        <v>0.3904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>162415</v>
+        <v>519196</v>
       </c>
       <c r="B16" t="str">
-        <v>美国消费</v>
+        <v>万家新兴蓝筹A</v>
       </c>
       <c r="C16" s="1">
-        <v>386.91</v>
+        <v>469.17</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="F16" s="1">
-        <v>11.88</v>
+        <v>36.87</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0317</v>
+        <v>0.0853</v>
       </c>
       <c r="H16" s="1">
-        <v>11.88</v>
+        <v>38.34</v>
       </c>
       <c r="I16" s="2">
-        <v>0.0317</v>
+        <v>0.0853</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="K16" s="1">
-        <v>11.88</v>
+        <v>37.45</v>
       </c>
       <c r="L16" s="1">
-        <v>11.88</v>
+        <v>38.14</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0296</v>
+        <v>0.036</v>
       </c>
       <c r="N16" s="3">
-        <v>123.85</v>
+        <v>104.74</v>
       </c>
       <c r="O16" s="4">
-        <v>24</v>
+        <v>572</v>
       </c>
       <c r="P16" s="2">
-        <v/>
+        <v>0.0031</v>
       </c>
       <c r="Q16" s="5">
-        <v/>
+        <v>4.4934</v>
       </c>
       <c r="R16" s="5">
-        <v>3.0281</v>
+        <v>4.1274</v>
       </c>
       <c r="S16" s="2">
         <v/>
       </c>
       <c r="T16" s="2">
-        <v>0.0396</v>
+        <v>0.0664</v>
       </c>
       <c r="U16" s="2">
-        <v>0.0236</v>
+        <v>0.0724</v>
       </c>
       <c r="V16" s="2">
-        <v>0.1213</v>
+        <v>0.7936</v>
       </c>
       <c r="W16" s="2">
-        <v>0.0266</v>
+        <v>0.6148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>501225</v>
+        <v>022328</v>
       </c>
       <c r="B17" t="str">
-        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
+        <v>宏利高端装备股票C</v>
       </c>
       <c r="C17" s="1">
-        <v>456.96</v>
+        <v>64.67</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F17" s="1">
-        <v>26.05</v>
+        <v>4.67</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0604</v>
+        <v>0.0778</v>
       </c>
       <c r="H17" s="1">
-        <v>26.05</v>
+        <v>6.09</v>
       </c>
       <c r="I17" s="2">
-        <v>0.0604</v>
+        <v>0.0778</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="K17" s="1">
-        <v>14.43</v>
+        <v>6.09</v>
       </c>
       <c r="L17" s="1">
-        <v>26.05</v>
+        <v>6.09</v>
       </c>
       <c r="M17" s="2">
-        <v>0.035</v>
+        <v>0.005</v>
       </c>
       <c r="N17" s="3">
-        <v>227.5</v>
+        <v>44.22</v>
       </c>
       <c r="O17" s="4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="P17" s="2">
-        <v/>
+        <v>0.022</v>
       </c>
       <c r="Q17" s="5">
-        <v/>
+        <v>1.4947</v>
       </c>
       <c r="R17" s="5">
-        <v>1.8941</v>
+        <v>1.3569</v>
       </c>
       <c r="S17" s="2">
         <v/>
       </c>
       <c r="T17" s="2">
-        <v>0.0697</v>
+        <v>0.0908</v>
       </c>
       <c r="U17" s="2">
-        <v>0.0811</v>
+        <v>0.1536</v>
       </c>
       <c r="V17" s="2">
-        <v>0.2977</v>
+        <v>0.4245</v>
       </c>
       <c r="W17" s="2">
-        <v>0.3429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>018861</v>
+        <v>002170</v>
       </c>
       <c r="B18" t="str">
-        <v>景顺长城量化港股通股票C</v>
+        <v>东吴移动互联混合C</v>
       </c>
       <c r="C18" s="1">
-        <v>277.45</v>
+        <v>154.53</v>
       </c>
       <c r="D18" s="1">
-        <v>0.16</v>
+        <v>1.41</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0006</v>
+        <v>0.0091</v>
       </c>
       <c r="F18" s="1">
-        <v>-4.75</v>
+        <v>8.19</v>
       </c>
       <c r="G18" s="2">
-        <v>-0.0168</v>
+        <v>0.056</v>
       </c>
       <c r="H18" s="1">
-        <v>-4.59</v>
+        <v>9.6</v>
       </c>
       <c r="I18" s="2">
-        <v>-0.0168</v>
+        <v>0.056</v>
       </c>
       <c r="J18" s="1">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="K18" s="1">
-        <v>-4.59</v>
+        <v>9.6</v>
       </c>
       <c r="L18" s="1">
-        <v>-4.59</v>
+        <v>9.6</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0213</v>
+        <v>0.0119</v>
       </c>
       <c r="N18" s="3">
-        <v>243.87</v>
+        <v>25.99</v>
       </c>
       <c r="O18" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0006</v>
+        <v>0.0091</v>
       </c>
       <c r="Q18" s="5">
-        <v>1.1383</v>
+        <v>6</v>
       </c>
       <c r="R18" s="5">
-        <v>1.1572</v>
+        <v>5.6306</v>
       </c>
       <c r="S18" s="2">
-        <v>0.0171</v>
+        <v/>
       </c>
       <c r="T18" s="2">
-        <v>-0.013</v>
+        <v>0.0866</v>
       </c>
       <c r="U18" s="2">
-        <v>-0.0127</v>
+        <v>-0.0121</v>
       </c>
       <c r="V18" s="2">
-        <v>0.0796</v>
+        <v>0.7167</v>
       </c>
       <c r="W18" s="2">
-        <v>0.2661</v>
+        <v>0.7872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>008708</v>
+        <v>008811</v>
       </c>
       <c r="B19" t="str">
-        <v>建信富时100指数(QDII)C美元现汇</v>
+        <v>鹏华科技创新混合</v>
       </c>
       <c r="C19" s="1">
-        <v>200.19</v>
+        <v>372.85</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="F19" s="1">
-        <v>8.47</v>
+        <v>12.02</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0442</v>
+        <v>0.0333</v>
       </c>
       <c r="H19" s="1">
-        <v>8.47</v>
+        <v>13.27</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0442</v>
+        <v>0.0333</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="K19" s="1">
-        <v>6.34</v>
+        <v>22.93</v>
       </c>
       <c r="L19" s="1">
-        <v>8.73</v>
+        <v>13.27</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0153</v>
+        <v>0.0286</v>
       </c>
       <c r="N19" s="3">
-        <v>1004.98</v>
+        <v>219.45</v>
       </c>
       <c r="O19" s="4">
-        <v>571</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2">
-        <v/>
+        <v>0.0034</v>
       </c>
       <c r="Q19" s="5">
-        <v/>
+        <v>1.7047</v>
       </c>
       <c r="R19" s="5">
-        <v>0.1908</v>
+        <v>1.6442</v>
       </c>
       <c r="S19" s="2">
         <v/>
       </c>
       <c r="T19" s="2">
-        <v>0.0556</v>
+        <v>0.0621</v>
       </c>
       <c r="U19" s="2">
-        <v>0.0613</v>
+        <v>-0.0007</v>
       </c>
       <c r="V19" s="2">
-        <v>0.121</v>
+        <v>0.2685</v>
       </c>
       <c r="W19" s="2">
-        <v>0.2885</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>007605</v>
+        <v>005063</v>
       </c>
       <c r="B20" t="str">
-        <v>嘉实沪深300红利低波动ETF联接A</v>
+        <v>广发中证全指家用电器ETF联接A</v>
       </c>
       <c r="C20" s="1">
-        <v>70.64</v>
+        <v>99.54</v>
       </c>
       <c r="D20" s="1">
-        <v>0.24</v>
+        <v>1.24</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0035</v>
+        <v>0.0125</v>
       </c>
       <c r="F20" s="1">
-        <v>-0.75</v>
+        <v>1.23</v>
       </c>
       <c r="G20" s="2">
-        <v>-0.0105</v>
+        <v>0.0125</v>
       </c>
       <c r="H20" s="1">
-        <v>-0.51</v>
+        <v>2.47</v>
       </c>
       <c r="I20" s="2">
-        <v>-0.0105</v>
+        <v>0.0125</v>
       </c>
       <c r="J20" s="1">
-        <v>0.24</v>
+        <v>0.56</v>
       </c>
       <c r="K20" s="1">
-        <v>3.56</v>
+        <v>2.47</v>
       </c>
       <c r="L20" s="1">
-        <v>3.12</v>
+        <v>2.47</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0054</v>
+        <v>0.0076</v>
       </c>
       <c r="N20" s="3">
-        <v>55.55</v>
+        <v>61.03</v>
       </c>
       <c r="O20" s="4">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0035</v>
+        <v>0.0125</v>
       </c>
       <c r="Q20" s="5">
-        <v>1.276</v>
+        <v>1.6514</v>
       </c>
       <c r="R20" s="5">
-        <v>1.2851</v>
+        <v>1.6108</v>
       </c>
       <c r="S20" s="2">
-        <v>0.0107</v>
+        <v/>
       </c>
       <c r="T20" s="2">
-        <v>-0.0164</v>
+        <v>0.0187</v>
       </c>
       <c r="U20" s="2">
-        <v>0.009</v>
+        <v>-0.0059</v>
       </c>
       <c r="V20" s="2">
-        <v>-0.0384</v>
+        <v>0.142</v>
       </c>
       <c r="W20" s="2">
-        <v>-0.0163</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>501311</v>
+        <v>165520</v>
       </c>
       <c r="B21" t="str">
-        <v>嘉实恒生港股通新经济指数(LOF)A</v>
+        <v>中信保诚中证800有色指数(LOF)A</v>
       </c>
       <c r="C21" s="1">
-        <v>57.33</v>
+        <v>66.07</v>
       </c>
       <c r="D21" s="1">
-        <v>0.37</v>
+        <v>1.19</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0065</v>
+        <v>0.0179</v>
       </c>
       <c r="F21" s="1">
-        <v>-3.21</v>
+        <v>5.81</v>
       </c>
       <c r="G21" s="2">
-        <v>-0.053</v>
+        <v>0.0964</v>
       </c>
       <c r="H21" s="1">
-        <v>-2.84</v>
+        <v>6.99</v>
       </c>
       <c r="I21" s="2">
-        <v>-0.053</v>
+        <v>0.0964</v>
       </c>
       <c r="J21" s="1">
-        <v>0.37</v>
+        <v>-0.57</v>
       </c>
       <c r="K21" s="1">
-        <v>-2.84</v>
+        <v>6.99</v>
       </c>
       <c r="L21" s="1">
-        <v>-2.84</v>
+        <v>6.99</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0044</v>
+        <v>0.0051</v>
       </c>
       <c r="N21" s="3">
-        <v>50.46</v>
+        <v>23.57</v>
       </c>
       <c r="O21" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P21" s="2">
-        <v>0.0065</v>
+        <v>0.0179</v>
       </c>
       <c r="Q21" s="5">
-        <v>1.1435</v>
+        <v>2.8533</v>
       </c>
       <c r="R21" s="5">
-        <v>1.1998</v>
+        <v>2.5566</v>
       </c>
       <c r="S21" s="2">
-        <v>0.056</v>
+        <v/>
       </c>
       <c r="T21" s="2">
-        <v>-0.0396</v>
+        <v>0.0907</v>
       </c>
       <c r="U21" s="2">
-        <v>-0.1286</v>
+        <v>0.1589</v>
       </c>
       <c r="V21" s="2">
-        <v>0.0149</v>
+        <v>0.6288</v>
       </c>
       <c r="W21" s="2">
-        <v>0.2345</v>
+        <v>0.8432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>007153</v>
+        <v>161022</v>
       </c>
       <c r="B22" t="str">
-        <v>汇添富中证银行ETF联接A</v>
+        <v>富国创业板ETF联接A</v>
       </c>
       <c r="C22" s="1">
-        <v>376.49</v>
+        <v>152.01</v>
       </c>
       <c r="D22" s="1">
-        <v>2.51</v>
+        <v>0.93</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0067</v>
+        <v>0.0061</v>
       </c>
       <c r="F22" s="1">
-        <v>-4.24</v>
+        <v>3.71</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.0111</v>
+        <v>0.025</v>
       </c>
       <c r="H22" s="1">
-        <v>-1.73</v>
+        <v>4.64</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.0111</v>
+        <v>0.025</v>
       </c>
       <c r="J22" s="1">
-        <v>2.51</v>
+        <v>0.02</v>
       </c>
       <c r="K22" s="1">
-        <v>-4.26</v>
+        <v>4.64</v>
       </c>
       <c r="L22" s="1">
-        <v>-1.73</v>
+        <v>4.64</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0289</v>
+        <v>0.0117</v>
       </c>
       <c r="N22" s="3">
-        <v>256.55</v>
+        <v>130.56</v>
       </c>
       <c r="O22" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P22" s="2">
-        <v>0.0067</v>
+        <v>0.0061</v>
       </c>
       <c r="Q22" s="5">
-        <v>1.4773</v>
+        <v>1.1714</v>
       </c>
       <c r="R22" s="5">
-        <v>1.484</v>
+        <v>1.1359</v>
       </c>
       <c r="S22" s="2">
-        <v>0.0113</v>
+        <v/>
       </c>
       <c r="T22" s="2">
-        <v>-0.0253</v>
+        <v>0.0522</v>
       </c>
       <c r="U22" s="2">
-        <v>0.0334</v>
+        <v>-0.0033</v>
       </c>
       <c r="V22" s="2">
-        <v>-0.072</v>
+        <v>0.486</v>
       </c>
       <c r="W22" s="2">
-        <v>0.0912</v>
+        <v>0.4508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>012863</v>
+        <v>018495</v>
       </c>
       <c r="B23" t="str">
-        <v>汇添富中证电池主题ETF发起式联接C</v>
+        <v>融通产业趋势臻选股票C</v>
       </c>
       <c r="C23" s="1">
-        <v>219.07</v>
+        <v>286.73</v>
       </c>
       <c r="D23" s="1">
-        <v>-3.45</v>
+        <v>0.88</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.0158</v>
+        <v>0.0031</v>
       </c>
       <c r="F23" s="1">
-        <v>3.89</v>
+        <v>21.85</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0181</v>
+        <v>0.0825</v>
       </c>
       <c r="H23" s="1">
-        <v>0.44</v>
+        <v>22.74</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0181</v>
+        <v>0.0825</v>
       </c>
       <c r="J23" s="1">
-        <v>-3.45</v>
+        <v>1.51</v>
       </c>
       <c r="K23" s="1">
-        <v>4.46</v>
+        <v>22.74</v>
       </c>
       <c r="L23" s="1">
-        <v>0.44</v>
+        <v>22.74</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0168</v>
+        <v>0.022</v>
       </c>
       <c r="N23" s="3">
-        <v>267.88</v>
+        <v>131.27</v>
       </c>
       <c r="O23" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P23" s="2">
-        <v>-0.0158</v>
+        <v>0.0031</v>
       </c>
       <c r="Q23" s="5">
-        <v>0.8049</v>
+        <v>2.191</v>
       </c>
       <c r="R23" s="5">
-        <v>0.8033</v>
+        <v>2.0178</v>
       </c>
       <c r="S23" s="2">
         <v/>
       </c>
       <c r="T23" s="2">
-        <v>0.0439</v>
+        <v>0.1117</v>
       </c>
       <c r="U23" s="2">
-        <v>0.0535</v>
+        <v>0.075</v>
       </c>
       <c r="V23" s="2">
-        <v>0.6402</v>
+        <v>0.7767</v>
       </c>
       <c r="W23" s="2">
-        <v>0.6178</v>
+        <v>0.9527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>005551</v>
+        <v>010033</v>
       </c>
       <c r="B24" t="str">
-        <v>汇安成长优选混合C</v>
+        <v>安信成长精选混合A</v>
       </c>
       <c r="C24" s="1">
-        <v>73.18</v>
+        <v>166.94</v>
       </c>
       <c r="D24" s="1">
-        <v>0.22</v>
+        <v>0.87</v>
       </c>
       <c r="E24" s="2">
-        <v>0.003</v>
+        <v>0.0052</v>
       </c>
       <c r="F24" s="1">
-        <v>3.18</v>
+        <v>6.82</v>
       </c>
       <c r="G24" s="2">
-        <v>0.0454</v>
+        <v>0.0426</v>
       </c>
       <c r="H24" s="1">
-        <v>3.4</v>
+        <v>7.69</v>
       </c>
       <c r="I24" s="2">
-        <v>0.0454</v>
+        <v>0.0426</v>
       </c>
       <c r="J24" s="1">
-        <v>0.22</v>
+        <v>1.43</v>
       </c>
       <c r="K24" s="1">
-        <v>3.4</v>
+        <v>20.25</v>
       </c>
       <c r="L24" s="1">
-        <v>3.4</v>
+        <v>7.69</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0056</v>
+        <v>0.0128</v>
       </c>
       <c r="N24" s="3">
-        <v>31.03</v>
+        <v>107.77</v>
       </c>
       <c r="O24" s="4">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="P24" s="2">
-        <v>0.003</v>
+        <v>0.0052</v>
       </c>
       <c r="Q24" s="5">
-        <v>2.3655</v>
+        <v>1.5571</v>
       </c>
       <c r="R24" s="5">
-        <v>2.2559</v>
+        <v>1.4858</v>
       </c>
       <c r="S24" s="2">
         <v/>
       </c>
       <c r="T24" s="2">
-        <v>0.1264</v>
+        <v>0.0788</v>
       </c>
       <c r="U24" s="2">
-        <v>0.1474</v>
+        <v>-0.0163</v>
       </c>
       <c r="V24" s="2">
-        <v>0.9228</v>
+        <v>0.574</v>
       </c>
       <c r="W24" s="2">
-        <v>1.2567</v>
+        <v>0.9821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>020422</v>
+        <v>013942</v>
       </c>
       <c r="B25" t="str">
-        <v>华夏中证港股通内地金融ETF发起式联接A</v>
+        <v>华宝中证稀有金属指数增强发起A</v>
       </c>
       <c r="C25" s="1">
-        <v>277.29</v>
+        <v>75.51</v>
       </c>
       <c r="D25" s="1">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0027</v>
+        <v>0.0104</v>
       </c>
       <c r="F25" s="1">
-        <v>0.69</v>
+        <v>5.51</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0025</v>
+        <v>0.0787</v>
       </c>
       <c r="H25" s="1">
-        <v>1.44</v>
+        <v>6.29</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0025</v>
+        <v>0.0787</v>
       </c>
       <c r="J25" s="1">
-        <v>0.75</v>
+        <v>-1.06</v>
       </c>
       <c r="K25" s="1">
-        <v>-4.23</v>
+        <v>6.29</v>
       </c>
       <c r="L25" s="1">
-        <v>-0.97</v>
+        <v>6.29</v>
       </c>
       <c r="M25" s="2">
-        <v>0.0212</v>
+        <v>0.0058</v>
       </c>
       <c r="N25" s="3">
-        <v>155.77</v>
+        <v>72.77</v>
       </c>
       <c r="O25" s="4">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="P25" s="2">
-        <v>0.0027</v>
+        <v>0.0104</v>
       </c>
       <c r="Q25" s="5">
-        <v>1.7849</v>
+        <v>1.0484</v>
       </c>
       <c r="R25" s="5">
-        <v>1.7757</v>
+        <v>0.9619</v>
       </c>
       <c r="S25" s="2">
         <v/>
       </c>
       <c r="T25" s="2">
-        <v>-0.0079</v>
+        <v>0.0711</v>
       </c>
       <c r="U25" s="2">
-        <v>0.0706</v>
+        <v>0.1854</v>
       </c>
       <c r="V25" s="2">
-        <v>0.0273</v>
+        <v>0.6847</v>
       </c>
       <c r="W25" s="2">
-        <v>0.2668</v>
+        <v>0.8074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>008086</v>
+        <v>012728</v>
       </c>
       <c r="B26" t="str">
-        <v>华夏中证5G通信主题ETF联接A</v>
+        <v>国泰中证动漫游戏ETF联接A</v>
       </c>
       <c r="C26" s="1">
-        <v>158.44</v>
+        <v>167.74</v>
       </c>
       <c r="D26" s="1">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="E26" s="2">
-        <v>0.0076</v>
+        <v>0.0047</v>
       </c>
       <c r="F26" s="1">
-        <v>14.17</v>
+        <v>2.76</v>
       </c>
       <c r="G26" s="2">
-        <v>0.0982</v>
+        <v>0.0168</v>
       </c>
       <c r="H26" s="1">
-        <v>15.38</v>
+        <v>3.55</v>
       </c>
       <c r="I26" s="2">
-        <v>0.0982</v>
+        <v>0.0168</v>
       </c>
       <c r="J26" s="1">
-        <v>1.21</v>
+        <v>-1.56</v>
       </c>
       <c r="K26" s="1">
-        <v>15.38</v>
+        <v>3.55</v>
       </c>
       <c r="L26" s="1">
-        <v>15.38</v>
+        <v>3.55</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0121</v>
+        <v>0.0129</v>
       </c>
       <c r="N26" s="3">
-        <v>71.44</v>
+        <v>109.73</v>
       </c>
       <c r="O26" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P26" s="2">
-        <v>0.0076</v>
+        <v>0.0047</v>
       </c>
       <c r="Q26" s="5">
-        <v>2.2347</v>
+        <v>1.5358</v>
       </c>
       <c r="R26" s="5">
-        <v>2.0195</v>
+        <v>1.5035</v>
       </c>
       <c r="S26" s="2">
         <v/>
       </c>
       <c r="T26" s="2">
-        <v>0.1224</v>
+        <v>0.014</v>
       </c>
       <c r="U26" s="2">
-        <v>0.0882</v>
+        <v>-0.1022</v>
       </c>
       <c r="V26" s="2">
-        <v>0.9471</v>
+        <v>0.1703</v>
       </c>
       <c r="W26" s="2">
-        <v>0.832</v>
+        <v>0.3731</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>011937</v>
+        <v>004752</v>
       </c>
       <c r="B27" t="str">
-        <v>华夏阿尔法精选混合C</v>
+        <v>广发中证传媒ETF联接A</v>
       </c>
       <c r="C27" s="1">
-        <v>152.05</v>
+        <v>99.68</v>
       </c>
       <c r="D27" s="1">
-        <v>1.1</v>
+        <v>0.69</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0073</v>
+        <v>0.007</v>
       </c>
       <c r="F27" s="1">
-        <v>2.05</v>
+        <v>-1.08</v>
       </c>
       <c r="G27" s="2">
-        <v>0.0136</v>
+        <v>-0.0107</v>
       </c>
       <c r="H27" s="1">
-        <v>3.15</v>
+        <v>-0.39</v>
       </c>
       <c r="I27" s="2">
-        <v>0.0136</v>
+        <v>-0.0107</v>
       </c>
       <c r="J27" s="1">
-        <v>1.1</v>
+        <v>0.51</v>
       </c>
       <c r="K27" s="1">
-        <v>3.15</v>
+        <v>-0.5</v>
       </c>
       <c r="L27" s="1">
-        <v>3.15</v>
+        <v>-0.39</v>
       </c>
       <c r="M27" s="2">
-        <v>0.0117</v>
+        <v>0.0076</v>
       </c>
       <c r="N27" s="3">
-        <v>161.46</v>
+        <v>102.52</v>
       </c>
       <c r="O27" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
-        <v>0.0073</v>
+        <v>0.007</v>
       </c>
       <c r="Q27" s="5">
-        <v>0.9485</v>
+        <v>0.9791</v>
       </c>
       <c r="R27" s="5">
-        <v>0.929</v>
+        <v>0.9828</v>
       </c>
       <c r="S27" s="2">
-        <v/>
+        <v>0.0108</v>
       </c>
       <c r="T27" s="2">
-        <v>0.006</v>
+        <v>-0.026</v>
       </c>
       <c r="U27" s="2">
-        <v>-0.078</v>
+        <v>-0.0806</v>
       </c>
       <c r="V27" s="2">
-        <v>0.2734</v>
+        <v>0.1463</v>
       </c>
       <c r="W27" s="2">
-        <v>0.2047</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>004206</v>
+        <v>501311</v>
       </c>
       <c r="B28" t="str">
-        <v>华商元亨混合A</v>
+        <v>嘉实恒生港股通新经济指数(LOF)A</v>
       </c>
       <c r="C28" s="1">
-        <v>263.19</v>
+        <v>56.96</v>
       </c>
       <c r="D28" s="1">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0013</v>
+        <v>0.012</v>
       </c>
       <c r="F28" s="1">
-        <v>6.27</v>
+        <v>-3.58</v>
       </c>
       <c r="G28" s="2">
-        <v>0.0244</v>
+        <v>-0.0591</v>
       </c>
       <c r="H28" s="1">
-        <v>6.62</v>
+        <v>-2.89</v>
       </c>
       <c r="I28" s="2">
-        <v>0.0244</v>
+        <v>-0.0591</v>
       </c>
       <c r="J28" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="K28" s="1">
-        <v>6.62</v>
+        <v>-2.89</v>
       </c>
       <c r="L28" s="1">
-        <v>6.62</v>
+        <v>-2.89</v>
       </c>
       <c r="M28" s="2">
-        <v>0.0202</v>
+        <v>0.0044</v>
       </c>
       <c r="N28" s="3">
-        <v>88.27</v>
+        <v>50.46</v>
       </c>
       <c r="O28" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P28" s="2">
-        <v>0.0013</v>
+        <v>0.012</v>
       </c>
       <c r="Q28" s="5">
-        <v>2.9856</v>
+        <v>1.1424</v>
       </c>
       <c r="R28" s="5">
-        <v>2.9106</v>
+        <v>1.1998</v>
       </c>
       <c r="S28" s="2">
-        <v/>
+        <v>0.0628</v>
       </c>
       <c r="T28" s="2">
-        <v>0.0392</v>
+        <v>-0.0401</v>
       </c>
       <c r="U28" s="2">
-        <v>0.0089</v>
+        <v>-0.1486</v>
       </c>
       <c r="V28" s="2">
-        <v>0.5872</v>
+        <v>0.0072</v>
       </c>
       <c r="W28" s="2">
-        <v>0.7577</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>013942</v>
+        <v>519180</v>
       </c>
       <c r="B29" t="str">
-        <v>华宝中证稀有金属指数增强发起A</v>
+        <v>万家180指数A</v>
       </c>
       <c r="C29" s="1">
-        <v>77.35</v>
+        <v>288.1</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.95</v>
+        <v>0.41</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.0123</v>
+        <v>0.0014</v>
       </c>
       <c r="F29" s="1">
-        <v>7.35</v>
+        <v>0.06</v>
       </c>
       <c r="G29" s="2">
-        <v>0.1051</v>
+        <v>0.0002</v>
       </c>
       <c r="H29" s="1">
-        <v>6.4</v>
+        <v>0.47</v>
       </c>
       <c r="I29" s="2">
-        <v>0.1051</v>
+        <v>0.0002</v>
       </c>
       <c r="J29" s="1">
-        <v>-0.95</v>
+        <v>-0.79</v>
       </c>
       <c r="K29" s="1">
-        <v>6.4</v>
+        <v>0.47</v>
       </c>
       <c r="L29" s="1">
-        <v>6.4</v>
+        <v>0.47</v>
       </c>
       <c r="M29" s="2">
-        <v>0.0059</v>
+        <v>0.0221</v>
       </c>
       <c r="N29" s="3">
-        <v>72.77</v>
+        <v>246.96</v>
       </c>
       <c r="O29" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P29" s="2">
-        <v>-0.0123</v>
+        <v>0.0014</v>
       </c>
       <c r="Q29" s="5">
-        <v>1.0499</v>
+        <v>1.1683</v>
       </c>
       <c r="R29" s="5">
-        <v>0.9619</v>
+        <v>1.1663</v>
       </c>
       <c r="S29" s="2">
         <v/>
       </c>
       <c r="T29" s="2">
-        <v>0.1167</v>
+        <v>0.02</v>
       </c>
       <c r="U29" s="2">
-        <v>0.2534</v>
+        <v>-0.0029</v>
       </c>
       <c r="V29" s="2">
-        <v>0.7495</v>
+        <v>0.157</v>
       </c>
       <c r="W29" s="2">
-        <v>0.8529</v>
+        <v>0.1514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>007844</v>
+        <v>020114</v>
       </c>
       <c r="B30" t="str">
-        <v>华宝油气C</v>
+        <v>易方达中证沪港深500ETF联接发起式C</v>
       </c>
       <c r="C30" s="1">
-        <v>325.56</v>
+        <v>78.42</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="F30" s="1">
-        <v>-9.57</v>
+        <v>-0.29</v>
       </c>
       <c r="G30" s="2">
-        <v>-0.0286</v>
+        <v>-0.0037</v>
       </c>
       <c r="H30" s="1">
-        <v>-9.57</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>-0.0286</v>
+        <v>-0.0037</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="K30" s="1">
-        <v>-8.6</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>-8.7</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0.0249</v>
+        <v>0.006</v>
       </c>
       <c r="N30" s="3">
-        <v>475.41</v>
+        <v>52.64</v>
       </c>
       <c r="O30" s="4">
-        <v>571</v>
+        <v>22</v>
       </c>
       <c r="P30" s="2">
-        <v/>
+        <v>0.0038</v>
       </c>
       <c r="Q30" s="5">
-        <v/>
+        <v>1.4953</v>
       </c>
       <c r="R30" s="5">
-        <v>0.7049</v>
+        <v>1.4953</v>
       </c>
       <c r="S30" s="2">
-        <v>0.0294</v>
+        <v>0.0037</v>
       </c>
       <c r="T30" s="2">
-        <v>-0.0332</v>
+        <v>0.0081</v>
       </c>
       <c r="U30" s="2">
-        <v>-0.0797</v>
+        <v>-0.0186</v>
       </c>
       <c r="V30" s="2">
-        <v>-0.0186</v>
+        <v>0.1349</v>
       </c>
       <c r="W30" s="2">
-        <v>-0.0373</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>002179</v>
+        <v>006486</v>
       </c>
       <c r="B31" t="str">
-        <v>华安事件驱动量化混合A</v>
+        <v>广发中证1000ETF联接A</v>
       </c>
       <c r="C31" s="1">
-        <v>369.55</v>
+        <v>415.69</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.78</v>
+        <v>0.24</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.0021</v>
+        <v>0.0006</v>
       </c>
       <c r="F31" s="1">
-        <v>6.87</v>
+        <v>10.02</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0189</v>
+        <v>0.0247</v>
       </c>
       <c r="H31" s="1">
-        <v>6.1</v>
+        <v>10.26</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0189</v>
+        <v>0.0247</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.78</v>
+        <v>-0.51</v>
       </c>
       <c r="K31" s="1">
-        <v>6.1</v>
+        <v>10.26</v>
       </c>
       <c r="L31" s="1">
-        <v>6.1</v>
+        <v>10.26</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0283</v>
+        <v>0.0319</v>
       </c>
       <c r="N31" s="3">
-        <v>149.98</v>
+        <v>260.46</v>
       </c>
       <c r="O31" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P31" s="2">
-        <v>-0.0021</v>
+        <v>0.0006</v>
       </c>
       <c r="Q31" s="5">
-        <v>2.4588</v>
+        <v>1.5969</v>
       </c>
       <c r="R31" s="5">
-        <v>2.4182</v>
+        <v>1.5575</v>
       </c>
       <c r="S31" s="2">
         <v/>
       </c>
       <c r="T31" s="2">
-        <v>0.0318</v>
+        <v>0.0333</v>
       </c>
       <c r="U31" s="2">
-        <v>0.0119</v>
+        <v>0.014</v>
       </c>
       <c r="V31" s="2">
-        <v>0.218</v>
+        <v>0.1997</v>
       </c>
       <c r="W31" s="2">
-        <v>0.3464</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>040047</v>
+        <v>005551</v>
       </c>
       <c r="B32" t="str">
-        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+        <v>汇安成长优选混合C</v>
       </c>
       <c r="C32" s="1">
-        <v>311.35</v>
+        <v>83.44</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="F32" s="1">
-        <v>3.79</v>
+        <v>3.44</v>
       </c>
       <c r="G32" s="2">
-        <v>0.0123</v>
+        <v>0.043</v>
       </c>
       <c r="H32" s="1">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="I32" s="2">
-        <v>0.0123</v>
+        <v>0.043</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K32" s="1">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="L32" s="1">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="M32" s="2">
-        <v>0.0239</v>
+        <v>0.0064</v>
       </c>
       <c r="N32" s="3">
-        <v>294</v>
+        <v>35.28</v>
       </c>
       <c r="O32" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P32" s="2">
-        <v/>
+        <v>0.0026</v>
       </c>
       <c r="Q32" s="5">
-        <v/>
+        <v>2.3712</v>
       </c>
       <c r="R32" s="5">
-        <v>1.0461</v>
+        <v>2.2676</v>
       </c>
       <c r="S32" s="2">
         <v/>
       </c>
       <c r="T32" s="2">
-        <v>0.0246</v>
+        <v>0.1195</v>
       </c>
       <c r="U32" s="2">
-        <v>0.0463</v>
+        <v>0.1226</v>
       </c>
       <c r="V32" s="2">
-        <v>0.1456</v>
+        <v>0.8929</v>
       </c>
       <c r="W32" s="2">
-        <v>0.141</v>
+        <v>1.3008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>006105</v>
+        <v>017387</v>
       </c>
       <c r="B33" t="str">
-        <v>宏利印度股票(QDII)A</v>
+        <v>兴证全球安悦稳健养老一年持有混合(FOF)Y</v>
       </c>
       <c r="C33" s="1">
-        <v>202.47</v>
+        <v>84.39</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="F33" s="1">
-        <v>-2.95</v>
+        <v>4.39</v>
       </c>
       <c r="G33" s="2">
-        <v>-0.0143</v>
+        <v>0.0549</v>
       </c>
       <c r="H33" s="1">
-        <v>-2.95</v>
+        <v>4.57</v>
       </c>
       <c r="I33" s="2">
-        <v>-0.0143</v>
+        <v>0.0549</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K33" s="1">
-        <v>-2.95</v>
+        <v>0.77</v>
       </c>
       <c r="L33" s="1">
-        <v>-2.95</v>
+        <v>6.73</v>
       </c>
       <c r="M33" s="2">
-        <v>0.0155</v>
+        <v>0.0065</v>
       </c>
       <c r="N33" s="3">
-        <v>138.87</v>
+        <v>71.58</v>
       </c>
       <c r="O33" s="4">
-        <v>24</v>
+        <v>572</v>
       </c>
       <c r="P33" s="2">
-        <v/>
+        <v>0.0021</v>
       </c>
       <c r="Q33" s="5">
-        <v/>
+        <v>1.1815</v>
       </c>
       <c r="R33" s="5">
-        <v>1.4792</v>
+        <v>1.1176</v>
       </c>
       <c r="S33" s="2">
-        <v>0.0146</v>
+        <v/>
       </c>
       <c r="T33" s="2">
-        <v>-0.0059</v>
+        <v>0.0079</v>
       </c>
       <c r="U33" s="2">
-        <v>-0.0027</v>
+        <v>0.0003</v>
       </c>
       <c r="V33" s="2">
-        <v>-0.0506</v>
+        <v>0.0519</v>
       </c>
       <c r="W33" s="2">
-        <v>-0.0491</v>
+        <v>0.0903</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>022328</v>
+        <v>006719</v>
       </c>
       <c r="B34" t="str">
-        <v>宏利高端装备股票C</v>
+        <v>国融融盛龙头严选混合C</v>
       </c>
       <c r="C34" s="1">
-        <v>64.78</v>
+        <v>224.05</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E34" s="2">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="F34" s="1">
-        <v>4.78</v>
+        <v>-9.24</v>
       </c>
       <c r="G34" s="2">
-        <v>0.0796</v>
+        <v>-0.0396</v>
       </c>
       <c r="H34" s="1">
-        <v>4.8</v>
+        <v>-9.08</v>
       </c>
       <c r="I34" s="2">
-        <v>0.0796</v>
+        <v>-0.0396</v>
       </c>
       <c r="J34" s="1">
-        <v>0.02</v>
+        <v>-1.88</v>
       </c>
       <c r="K34" s="1">
-        <v>4.8</v>
+        <v>5.27</v>
       </c>
       <c r="L34" s="1">
-        <v>4.8</v>
+        <v>-9.08</v>
       </c>
       <c r="M34" s="2">
-        <v>0.005</v>
+        <v>0.0172</v>
       </c>
       <c r="N34" s="3">
-        <v>44.22</v>
+        <v>118.88</v>
       </c>
       <c r="O34" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="Q34" s="5">
-        <v>1.4653</v>
+        <v>1.886</v>
       </c>
       <c r="R34" s="5">
-        <v>1.3569</v>
+        <v>1.9624</v>
       </c>
       <c r="S34" s="2">
-        <v/>
+        <v>0.0412</v>
       </c>
       <c r="T34" s="2">
-        <v>0.1265</v>
+        <v>-0.0263</v>
       </c>
       <c r="U34" s="2">
-        <v>0.1555</v>
+        <v>-0.0702</v>
       </c>
       <c r="V34" s="2">
-        <v>0.4362</v>
+        <v>0.0271</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>-0.0369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>007817</v>
+        <v>006195</v>
       </c>
       <c r="B35" t="str">
-        <v>国泰中证全指通信设备ETF联接A</v>
+        <v>国金量化多因子A</v>
       </c>
       <c r="C35" s="1">
-        <v>159.99</v>
+        <v>311.89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="E35" s="2">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="F35" s="1">
-        <v>23.93</v>
+        <v>7.59</v>
       </c>
       <c r="G35" s="2">
-        <v>0.1759</v>
+        <v>0.0249</v>
       </c>
       <c r="H35" s="1">
-        <v>24.19</v>
+        <v>7.7</v>
       </c>
       <c r="I35" s="2">
-        <v>0.1759</v>
+        <v>0.0249</v>
       </c>
       <c r="J35" s="1">
-        <v>0.26</v>
+        <v>-3.37</v>
       </c>
       <c r="K35" s="1">
-        <v>14.73</v>
+        <v>10.5</v>
       </c>
       <c r="L35" s="1">
-        <v>24.19</v>
+        <v>7.7</v>
       </c>
       <c r="M35" s="2">
-        <v>0.0123</v>
+        <v>0.0239</v>
       </c>
       <c r="N35" s="3">
-        <v>54.45</v>
+        <v>103.37</v>
       </c>
       <c r="O35" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P35" s="2">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="Q35" s="5">
-        <v>2.943</v>
+        <v>3.0183</v>
       </c>
       <c r="R35" s="5">
-        <v>2.4988</v>
+        <v>2.9438</v>
       </c>
       <c r="S35" s="2">
         <v/>
       </c>
       <c r="T35" s="2">
-        <v>0.1613</v>
+        <v>0.0265</v>
       </c>
       <c r="U35" s="2">
-        <v>0.1487</v>
+        <v>0.0364</v>
       </c>
       <c r="V35" s="2">
-        <v>1.1185</v>
+        <v>0.2475</v>
       </c>
       <c r="W35" s="2">
-        <v>1.0476</v>
+        <v>0.4539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>012728</v>
+        <v>007817</v>
       </c>
       <c r="B36" t="str">
-        <v>国泰中证动漫游戏ETF联接A</v>
+        <v>国泰中证全指通信设备ETF联接A</v>
       </c>
       <c r="C36" s="1">
-        <v>175.1</v>
+        <v>120.19</v>
       </c>
       <c r="D36" s="1">
-        <v>-1.42</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.0081</v>
+        <v>0.0005</v>
       </c>
       <c r="F36" s="1">
-        <v>5.1</v>
+        <v>18.13</v>
       </c>
       <c r="G36" s="2">
-        <v>0.03</v>
+        <v>0.1777</v>
       </c>
       <c r="H36" s="1">
-        <v>3.68</v>
+        <v>18.19</v>
       </c>
       <c r="I36" s="2">
-        <v>0.03</v>
+        <v>0.1777</v>
       </c>
       <c r="J36" s="1">
-        <v>-1.42</v>
+        <v>-5.74</v>
       </c>
       <c r="K36" s="1">
-        <v>3.68</v>
+        <v>8.73</v>
       </c>
       <c r="L36" s="1">
-        <v>3.68</v>
+        <v>18.19</v>
       </c>
       <c r="M36" s="2">
-        <v>0.0134</v>
+        <v>0.0092</v>
       </c>
       <c r="N36" s="3">
-        <v>113.19</v>
+        <v>40.84</v>
       </c>
       <c r="O36" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P36" s="2">
-        <v>-0.0081</v>
+        <v>0.0005</v>
       </c>
       <c r="Q36" s="5">
-        <v>1.5344</v>
+        <v>2.9444</v>
       </c>
       <c r="R36" s="5">
-        <v>1.5019</v>
+        <v>2.499</v>
       </c>
       <c r="S36" s="2">
         <v/>
       </c>
       <c r="T36" s="2">
-        <v>0.0141</v>
+        <v>0.1548</v>
       </c>
       <c r="U36" s="2">
-        <v>-0.089</v>
+        <v>0.1344</v>
       </c>
       <c r="V36" s="2">
-        <v>0.1734</v>
+        <v>1.076</v>
       </c>
       <c r="W36" s="2">
-        <v>0.3953</v>
+        <v>1.0847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>006719</v>
+        <v>006105</v>
       </c>
       <c r="B37" t="str">
-        <v>国融融盛龙头严选混合C</v>
+        <v>宏利印度股票(QDII)A</v>
       </c>
       <c r="C37" s="1">
-        <v>216.09</v>
+        <v>211.37</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.88</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.0041</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>-7.2</v>
+        <v>-4.05</v>
       </c>
       <c r="G37" s="2">
-        <v>-0.0322</v>
+        <v>-0.0188</v>
       </c>
       <c r="H37" s="1">
-        <v>-8.08</v>
+        <v>-4.05</v>
       </c>
       <c r="I37" s="2">
-        <v>-0.0322</v>
+        <v>-0.0188</v>
       </c>
       <c r="J37" s="1">
-        <v>-0.88</v>
+        <v>-1.17</v>
       </c>
       <c r="K37" s="1">
-        <v>6.26</v>
+        <v>-4.05</v>
       </c>
       <c r="L37" s="1">
-        <v>-8.08</v>
+        <v>-4.05</v>
       </c>
       <c r="M37" s="2">
-        <v>0.0166</v>
+        <v>0.0162</v>
       </c>
       <c r="N37" s="3">
-        <v>113.63</v>
+        <v>145.77</v>
       </c>
       <c r="O37" s="4">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P37" s="2">
-        <v>-0.0041</v>
+        <v/>
       </c>
       <c r="Q37" s="5">
-        <v>1.8939</v>
+        <v/>
       </c>
       <c r="R37" s="5">
-        <v>1.9651</v>
+        <v>1.4778</v>
       </c>
       <c r="S37" s="2">
-        <v>0.0333</v>
+        <v>0.0192</v>
       </c>
       <c r="T37" s="2">
-        <v>-0.0115</v>
+        <v>-0.0191</v>
       </c>
       <c r="U37" s="2">
-        <v>-0.0399</v>
+        <v>0.0037</v>
       </c>
       <c r="V37" s="2">
-        <v>0.0458</v>
+        <v>-0.0658</v>
       </c>
       <c r="W37" s="2">
-        <v>-0.0547</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>257060</v>
+        <v>006373</v>
       </c>
       <c r="B38" t="str">
-        <v>国联安上证商品ETF联接A</v>
+        <v>国富全球科技互联混合(QDII)人民币A</v>
       </c>
       <c r="C38" s="1">
-        <v>355.12</v>
+        <v>103.69</v>
       </c>
       <c r="D38" s="1">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>0.0064</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>14.47</v>
+        <v>9.82</v>
       </c>
       <c r="G38" s="2">
-        <v>0.0425</v>
+        <v>0.1046</v>
       </c>
       <c r="H38" s="1">
-        <v>16.74</v>
+        <v>9.82</v>
       </c>
       <c r="I38" s="2">
-        <v>0.0425</v>
+        <v>0.1046</v>
       </c>
       <c r="J38" s="1">
-        <v>2.27</v>
+        <v>-0.32</v>
       </c>
       <c r="K38" s="1">
-        <v>18.75</v>
+        <v>9.82</v>
       </c>
       <c r="L38" s="1">
-        <v>16.74</v>
+        <v>9.82</v>
       </c>
       <c r="M38" s="2">
-        <v>0.0272</v>
+        <v>0.008</v>
       </c>
       <c r="N38" s="3">
-        <v>237.11</v>
+        <v>23.06</v>
       </c>
       <c r="O38" s="4">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="P38" s="2">
-        <v>0.0064</v>
+        <v/>
       </c>
       <c r="Q38" s="5">
-        <v>1.5073</v>
+        <v/>
       </c>
       <c r="R38" s="5">
-        <v>1.4367</v>
+        <v>4.0707</v>
       </c>
       <c r="S38" s="2">
         <v/>
       </c>
       <c r="T38" s="2">
-        <v>0.0657</v>
+        <v>0.0531</v>
       </c>
       <c r="U38" s="2">
-        <v>0.1183</v>
+        <v>0.0745</v>
       </c>
       <c r="V38" s="2">
-        <v>0.3578</v>
+        <v>0.1882</v>
       </c>
       <c r="W38" s="2">
-        <v>0.3656</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>006195</v>
+        <v>006680</v>
       </c>
       <c r="B39" t="str">
-        <v>国金量化多因子A</v>
+        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
       </c>
       <c r="C39" s="1">
-        <v>344.79</v>
+        <v>37.31</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.0015</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>11.06</v>
+        <v>-2.2</v>
       </c>
       <c r="G39" s="2">
-        <v>0.0331</v>
+        <v>-0.0557</v>
       </c>
       <c r="H39" s="1">
-        <v>10.55</v>
+        <v>-2.2</v>
       </c>
       <c r="I39" s="2">
-        <v>0.0331</v>
+        <v>-0.0557</v>
       </c>
       <c r="J39" s="1">
-        <v>-0.51</v>
+        <v>-0.17</v>
       </c>
       <c r="K39" s="1">
-        <v>13.35</v>
+        <v>-2.2</v>
       </c>
       <c r="L39" s="1">
-        <v>10.55</v>
+        <v>-2.2</v>
       </c>
       <c r="M39" s="2">
-        <v>0.0264</v>
+        <v>0.0029</v>
       </c>
       <c r="N39" s="3">
-        <v>113.37</v>
+        <v>122.41</v>
       </c>
       <c r="O39" s="4">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P39" s="2">
-        <v>-0.0015</v>
+        <v/>
       </c>
       <c r="Q39" s="5">
-        <v>3.0368</v>
+        <v/>
       </c>
       <c r="R39" s="5">
-        <v>2.9437</v>
+        <v>0.3228</v>
       </c>
       <c r="S39" s="2">
-        <v/>
+        <v>0.059</v>
       </c>
       <c r="T39" s="2">
-        <v>0.05</v>
+        <v>-0.0351</v>
       </c>
       <c r="U39" s="2">
-        <v>0.0627</v>
+        <v>-0.0685</v>
       </c>
       <c r="V39" s="2">
-        <v>0.2628</v>
+        <v>-0.0059</v>
       </c>
       <c r="W39" s="2">
-        <v>0.4769</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>006373</v>
+        <v>007721</v>
       </c>
       <c r="B40" t="str">
-        <v>国富全球科技互联混合(QDII)人民币A</v>
+        <v>天弘标普500发起(QDII-FOF)A</v>
       </c>
       <c r="C40" s="1">
-        <v>104.01</v>
+        <v>760.17</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -3226,34 +3226,34 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>10.15</v>
+        <v>27.19</v>
       </c>
       <c r="G40" s="2">
-        <v>0.1081</v>
+        <v>0.0371</v>
       </c>
       <c r="H40" s="1">
-        <v>10.15</v>
+        <v>27.19</v>
       </c>
       <c r="I40" s="2">
-        <v>0.1081</v>
+        <v>0.0371</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
       <c r="K40" s="1">
-        <v>10.15</v>
+        <v>6.04</v>
       </c>
       <c r="L40" s="1">
-        <v>10.15</v>
+        <v>27.19</v>
       </c>
       <c r="M40" s="2">
-        <v>0.008</v>
+        <v>0.0583</v>
       </c>
       <c r="N40" s="3">
-        <v>23.06</v>
+        <v>357.98</v>
       </c>
       <c r="O40" s="4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P40" s="2">
         <v/>
@@ -3262,388 +3262,388 @@
         <v/>
       </c>
       <c r="R40" s="5">
-        <v>4.0703</v>
+        <v>2.0475</v>
       </c>
       <c r="S40" s="2">
         <v/>
       </c>
       <c r="T40" s="2">
-        <v>0.0689</v>
+        <v>0.01</v>
       </c>
       <c r="U40" s="2">
-        <v>0.0781</v>
+        <v>0.0292</v>
       </c>
       <c r="V40" s="2">
-        <v>0.2037</v>
+        <v>0.1001</v>
       </c>
       <c r="W40" s="2">
-        <v>0.2502</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>005063</v>
+        <v>007844</v>
       </c>
       <c r="B41" t="str">
-        <v>广发中证全指家用电器ETF联接A</v>
+        <v>华宝油气C</v>
       </c>
       <c r="C41" s="1">
-        <v>132.98</v>
+        <v>333.09</v>
       </c>
       <c r="D41" s="1">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0.0024</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>1.91</v>
+        <v>-12.04</v>
       </c>
       <c r="G41" s="2">
-        <v>0.0146</v>
+        <v>-0.0349</v>
       </c>
       <c r="H41" s="1">
-        <v>2.24</v>
+        <v>-12.04</v>
       </c>
       <c r="I41" s="2">
-        <v>0.0146</v>
+        <v>-0.0349</v>
       </c>
       <c r="J41" s="1">
-        <v>0.32</v>
+        <v>-2.55</v>
       </c>
       <c r="K41" s="1">
-        <v>2.24</v>
+        <v>-11.07</v>
       </c>
       <c r="L41" s="1">
-        <v>2.24</v>
+        <v>-11.17</v>
       </c>
       <c r="M41" s="2">
-        <v>0.0102</v>
+        <v>0.0256</v>
       </c>
       <c r="N41" s="3">
-        <v>81.37</v>
+        <v>490.13</v>
       </c>
       <c r="O41" s="4">
-        <v>21</v>
+        <v>572</v>
       </c>
       <c r="P41" s="2">
-        <v>0.0024</v>
+        <v/>
       </c>
       <c r="Q41" s="5">
-        <v>1.6383</v>
+        <v/>
       </c>
       <c r="R41" s="5">
-        <v>1.6108</v>
+        <v>0.7042</v>
       </c>
       <c r="S41" s="2">
-        <v/>
+        <v>0.0361</v>
       </c>
       <c r="T41" s="2">
-        <v>0.0215</v>
+        <v>-0.0496</v>
       </c>
       <c r="U41" s="2">
-        <v>0.0063</v>
+        <v>-0.0947</v>
       </c>
       <c r="V41" s="2">
-        <v>0.1437</v>
+        <v>-0.0373</v>
       </c>
       <c r="W41" s="2">
-        <v>0.1179</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>005693</v>
+        <v>008708</v>
       </c>
       <c r="B42" t="str">
-        <v>广发中证军工ETF联接C</v>
+        <v>建信富时100指数(QDII)C美元现汇</v>
       </c>
       <c r="C42" s="1">
-        <v>207.98</v>
+        <v>200.19</v>
       </c>
       <c r="D42" s="1">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0.0121</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>17.53</v>
+        <v>8.47</v>
       </c>
       <c r="G42" s="2">
-        <v>0.092</v>
+        <v>0.0442</v>
       </c>
       <c r="H42" s="1">
-        <v>20.05</v>
+        <v>8.47</v>
       </c>
       <c r="I42" s="2">
-        <v>0.092</v>
+        <v>0.0442</v>
       </c>
       <c r="J42" s="1">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>20.05</v>
+        <v>6.34</v>
       </c>
       <c r="L42" s="1">
-        <v>20.05</v>
+        <v>8.73</v>
       </c>
       <c r="M42" s="2">
-        <v>0.0159</v>
+        <v>0.0154</v>
       </c>
       <c r="N42" s="3">
-        <v>163.07</v>
+        <v>1004.98</v>
       </c>
       <c r="O42" s="4">
-        <v>21</v>
+        <v>572</v>
       </c>
       <c r="P42" s="2">
-        <v>0.0121</v>
+        <v/>
       </c>
       <c r="Q42" s="5">
-        <v>1.2908</v>
+        <v/>
       </c>
       <c r="R42" s="5">
-        <v>1.1679</v>
+        <v>0.1908</v>
       </c>
       <c r="S42" s="2">
         <v/>
       </c>
       <c r="T42" s="2">
-        <v>0.1419</v>
+        <v>0.0556</v>
       </c>
       <c r="U42" s="2">
-        <v>0.1089</v>
+        <v>0.0613</v>
       </c>
       <c r="V42" s="2">
-        <v>0.2078</v>
+        <v>0.121</v>
       </c>
       <c r="W42" s="2">
-        <v>0.2493</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>004752</v>
+        <v>012061</v>
       </c>
       <c r="B43" t="str">
-        <v>广发中证传媒ETF联接A</v>
+        <v>富国全球消费精选混合(QDII)美元现汇</v>
       </c>
       <c r="C43" s="1">
-        <v>115.59</v>
+        <v>243.02</v>
       </c>
       <c r="D43" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>-0.9</v>
+        <v>-1.35</v>
       </c>
       <c r="G43" s="2">
-        <v>-0.0077</v>
+        <v>-0.0055</v>
       </c>
       <c r="H43" s="1">
-        <v>-0.8</v>
+        <v>-1.35</v>
       </c>
       <c r="I43" s="2">
-        <v>-0.0077</v>
+        <v>-0.0055</v>
       </c>
       <c r="J43" s="1">
-        <v>0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="K43" s="1">
-        <v>-0.91</v>
+        <v>-1.4</v>
       </c>
       <c r="L43" s="1">
-        <v>-0.8</v>
+        <v>-1.35</v>
       </c>
       <c r="M43" s="2">
-        <v>0.0089</v>
+        <v>0.0186</v>
       </c>
       <c r="N43" s="3">
-        <v>118.52</v>
+        <v>1040.78</v>
       </c>
       <c r="O43" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P43" s="2">
-        <v>0.0009</v>
+        <v/>
       </c>
       <c r="Q43" s="5">
-        <v>0.9761</v>
+        <v/>
       </c>
       <c r="R43" s="5">
-        <v>0.9829</v>
+        <v>0.2348</v>
       </c>
       <c r="S43" s="2">
-        <v>0.0078</v>
+        <v>0.0055</v>
       </c>
       <c r="T43" s="2">
-        <v>-0.0327</v>
+        <v>0.0017</v>
       </c>
       <c r="U43" s="2">
-        <v>-0.0747</v>
+        <v>-0.0339</v>
       </c>
       <c r="V43" s="2">
-        <v>0.1463</v>
+        <v>0.0983</v>
       </c>
       <c r="W43" s="2">
-        <v>0.1995</v>
+        <v>0.4788</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>006486</v>
+        <v>040047</v>
       </c>
       <c r="B44" t="str">
-        <v>广发中证1000ETF联接A</v>
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
       </c>
       <c r="C44" s="1">
-        <v>406.44</v>
+        <v>310.48</v>
       </c>
       <c r="D44" s="1">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>10.77</v>
+        <v>2.92</v>
       </c>
       <c r="G44" s="2">
-        <v>0.0272</v>
+        <v>0.0095</v>
       </c>
       <c r="H44" s="1">
-        <v>11.7</v>
+        <v>2.92</v>
       </c>
       <c r="I44" s="2">
-        <v>0.0272</v>
+        <v>0.0095</v>
       </c>
       <c r="J44" s="1">
-        <v>0.93</v>
+        <v>-0.15</v>
       </c>
       <c r="K44" s="1">
-        <v>11.7</v>
+        <v>2.92</v>
       </c>
       <c r="L44" s="1">
-        <v>11.7</v>
+        <v>2.92</v>
       </c>
       <c r="M44" s="2">
-        <v>0.0311</v>
+        <v>0.0238</v>
       </c>
       <c r="N44" s="3">
-        <v>254.25</v>
+        <v>293.32</v>
       </c>
       <c r="O44" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P44" s="2">
-        <v>0.0023</v>
+        <v/>
       </c>
       <c r="Q44" s="5">
-        <v>1.6023</v>
+        <v/>
       </c>
       <c r="R44" s="5">
-        <v>1.5562</v>
+        <v>1.0485</v>
       </c>
       <c r="S44" s="2">
         <v/>
       </c>
       <c r="T44" s="2">
-        <v>0.0462</v>
+        <v>0.0152</v>
       </c>
       <c r="U44" s="2">
-        <v>0.0289</v>
+        <v>0.0415</v>
       </c>
       <c r="V44" s="2">
-        <v>0.2071</v>
+        <v>0.1345</v>
       </c>
       <c r="W44" s="2">
-        <v>0.233</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>017963</v>
+        <v>096001</v>
       </c>
       <c r="B45" t="str">
-        <v>广发医药创新混合发起式C</v>
+        <v>大成标普500等权重指数(QDII)A人民币</v>
       </c>
       <c r="C45" s="1">
-        <v>79.32</v>
+        <v>102.13</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.0093</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>-0.68</v>
+        <v>1.89</v>
       </c>
       <c r="G45" s="2">
-        <v>-0.0085</v>
+        <v>0.0189</v>
       </c>
       <c r="H45" s="1">
-        <v>-1.42</v>
+        <v>1.89</v>
       </c>
       <c r="I45" s="2">
-        <v>-0.0085</v>
+        <v>0.0189</v>
       </c>
       <c r="J45" s="1">
-        <v>-0.74</v>
+        <v>-0.04</v>
       </c>
       <c r="K45" s="1">
-        <v>-1.42</v>
+        <v>0.43</v>
       </c>
       <c r="L45" s="1">
-        <v>-1.42</v>
+        <v>1.89</v>
       </c>
       <c r="M45" s="2">
-        <v>0.0061</v>
+        <v>0.0078</v>
       </c>
       <c r="N45" s="3">
-        <v>63.19</v>
+        <v>37.66</v>
       </c>
       <c r="O45" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P45" s="2">
-        <v>-0.0093</v>
+        <v/>
       </c>
       <c r="Q45" s="5">
-        <v>1.2435</v>
+        <v/>
       </c>
       <c r="R45" s="5">
-        <v>1.266</v>
+        <v>2.6617</v>
       </c>
       <c r="S45" s="2">
-        <v>0.0086</v>
+        <v/>
       </c>
       <c r="T45" s="2">
-        <v>-0.0703</v>
+        <v>0.0121</v>
       </c>
       <c r="U45" s="2">
-        <v>-0.0958</v>
+        <v>0.015</v>
       </c>
       <c r="V45" s="2">
-        <v>0.0757</v>
+        <v>0.0532</v>
       </c>
       <c r="W45" s="2">
-        <v>0.4209</v>
+        <v>0.0627</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>006680</v>
+        <v>100055</v>
       </c>
       <c r="B46" t="str">
-        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
+        <v>富国全球科技互联网股票(QDII)A</v>
       </c>
       <c r="C46" s="1">
-        <v>37.58</v>
+        <v>431.39</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -3652,34 +3652,34 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>-1.93</v>
+        <v>6.42</v>
       </c>
       <c r="G46" s="2">
-        <v>-0.0489</v>
+        <v>0.0151</v>
       </c>
       <c r="H46" s="1">
-        <v>-1.93</v>
+        <v>6.42</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.0489</v>
+        <v>0.0151</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>-1.93</v>
+        <v>6.42</v>
       </c>
       <c r="L46" s="1">
-        <v>-1.93</v>
+        <v>6.42</v>
       </c>
       <c r="M46" s="2">
-        <v>0.0029</v>
+        <v>0.0331</v>
       </c>
       <c r="N46" s="3">
-        <v>122.72</v>
+        <v>115.91</v>
       </c>
       <c r="O46" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P46" s="2">
         <v/>
@@ -3688,448 +3688,448 @@
         <v/>
       </c>
       <c r="R46" s="5">
-        <v>0.322</v>
+        <v>3.6664</v>
       </c>
       <c r="S46" s="2">
-        <v>0.0514</v>
+        <v/>
       </c>
       <c r="T46" s="2">
-        <v>-0.0205</v>
+        <v>0.0196</v>
       </c>
       <c r="U46" s="2">
-        <v>-0.0549</v>
+        <v>0.0226</v>
       </c>
       <c r="V46" s="2">
-        <v>0.0109</v>
+        <v>0.2526</v>
       </c>
       <c r="W46" s="2">
-        <v>0.0122</v>
+        <v>0.4122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>017512</v>
+        <v>162415</v>
       </c>
       <c r="B47" t="str">
-        <v>广发北证50成份指数A</v>
+        <v>美国消费</v>
       </c>
       <c r="C47" s="1">
-        <v>484.79</v>
+        <v>385.05</v>
       </c>
       <c r="D47" s="1">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>2.7</v>
+        <v>10.02</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0056</v>
+        <v>0.0267</v>
       </c>
       <c r="H47" s="1">
-        <v>3.98</v>
+        <v>10.02</v>
       </c>
       <c r="I47" s="2">
-        <v>0.0056</v>
+        <v>0.0267</v>
       </c>
       <c r="J47" s="1">
-        <v>1.28</v>
+        <v>-1.86</v>
       </c>
       <c r="K47" s="1">
-        <v>33.13</v>
+        <v>10.02</v>
       </c>
       <c r="L47" s="1">
-        <v>3.98</v>
+        <v>10.02</v>
       </c>
       <c r="M47" s="2">
-        <v>0.0371</v>
+        <v>0.0295</v>
       </c>
       <c r="N47" s="3">
-        <v>280.05</v>
+        <v>123.85</v>
       </c>
       <c r="O47" s="4">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P47" s="2">
-        <v>0.0026</v>
+        <v/>
       </c>
       <c r="Q47" s="5">
-        <v>1.7357</v>
+        <v/>
       </c>
       <c r="R47" s="5">
-        <v>1.7214</v>
+        <v>3.0281</v>
       </c>
       <c r="S47" s="2">
         <v/>
       </c>
       <c r="T47" s="2">
-        <v>0.051</v>
+        <v>0.0291</v>
       </c>
       <c r="U47" s="2">
-        <v>-0.0396</v>
+        <v>0.0042</v>
       </c>
       <c r="V47" s="2">
-        <v>0.0291</v>
+        <v>0.1064</v>
       </c>
       <c r="W47" s="2">
-        <v>0.3318</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>013048</v>
+        <v>501225</v>
       </c>
       <c r="B48" t="str">
-        <v>富国中证新能源汽车指数C</v>
+        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
       </c>
       <c r="C48" s="1">
-        <v>174.16</v>
+        <v>476.81</v>
       </c>
       <c r="D48" s="1">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.0092</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>8.51</v>
+        <v>25.89</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0514</v>
+        <v>0.0574</v>
       </c>
       <c r="H48" s="1">
-        <v>6.9</v>
+        <v>25.89</v>
       </c>
       <c r="I48" s="2">
-        <v>0.0514</v>
+        <v>0.0574</v>
       </c>
       <c r="J48" s="1">
-        <v>-1.61</v>
+        <v>-0.07</v>
       </c>
       <c r="K48" s="1">
-        <v>6.9</v>
+        <v>14.27</v>
       </c>
       <c r="L48" s="1">
-        <v>6.9</v>
+        <v>25.89</v>
       </c>
       <c r="M48" s="2">
-        <v>0.0133</v>
+        <v>0.0366</v>
       </c>
       <c r="N48" s="3">
-        <v>148.22</v>
+        <v>237.42</v>
       </c>
       <c r="O48" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="P48" s="2">
-        <v>-0.0092</v>
+        <v/>
       </c>
       <c r="Q48" s="5">
-        <v>1.1642</v>
+        <v/>
       </c>
       <c r="R48" s="5">
-        <v>1.1176</v>
+        <v>1.8993</v>
       </c>
       <c r="S48" s="2">
         <v/>
       </c>
       <c r="T48" s="2">
-        <v>0.0614</v>
+        <v>0.0484</v>
       </c>
       <c r="U48" s="2">
-        <v>0.0624</v>
+        <v>0.0816</v>
       </c>
       <c r="V48" s="2">
-        <v>0.4633</v>
+        <v>0.2911</v>
       </c>
       <c r="W48" s="2">
-        <v>0.5083</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>012061</v>
+        <v>007605</v>
       </c>
       <c r="B49" t="str">
-        <v>富国全球消费精选混合(QDII)美元现汇</v>
+        <v>嘉实沪深300红利低波动ETF联接A</v>
       </c>
       <c r="C49" s="1">
-        <v>233.92</v>
+        <v>70.85</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="F49" s="1">
-        <v>-0.45</v>
+        <v>-0.54</v>
       </c>
       <c r="G49" s="2">
-        <v>-0.0019</v>
+        <v>-0.0076</v>
       </c>
       <c r="H49" s="1">
-        <v>-0.45</v>
+        <v>-0.62</v>
       </c>
       <c r="I49" s="2">
-        <v>-0.0019</v>
+        <v>-0.0076</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K49" s="1">
-        <v>-0.51</v>
+        <v>3.46</v>
       </c>
       <c r="L49" s="1">
-        <v>-0.45</v>
+        <v>3.01</v>
       </c>
       <c r="M49" s="2">
-        <v>0.0179</v>
+        <v>0.0054</v>
       </c>
       <c r="N49" s="3">
-        <v>1000.94</v>
+        <v>55.55</v>
       </c>
       <c r="O49" s="4">
-        <v>39</v>
+        <v>572</v>
       </c>
       <c r="P49" s="2">
-        <v/>
+        <v>-0.0011</v>
       </c>
       <c r="Q49" s="5">
-        <v/>
+        <v>1.2741</v>
       </c>
       <c r="R49" s="5">
-        <v>0.2341</v>
+        <v>1.2851</v>
       </c>
       <c r="S49" s="2">
-        <v>0.0019</v>
+        <v>0.0076</v>
       </c>
       <c r="T49" s="2">
-        <v>0.0056</v>
+        <v>-0.0131</v>
       </c>
       <c r="U49" s="2">
-        <v>-0.0438</v>
+        <v>0.0141</v>
       </c>
       <c r="V49" s="2">
-        <v>0.1003</v>
+        <v>-0.0233</v>
       </c>
       <c r="W49" s="2">
-        <v>0.481</v>
+        <v>-0.0159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>100055</v>
+        <v>008086</v>
       </c>
       <c r="B50" t="str">
-        <v>富国全球科技互联网股票(QDII)A</v>
+        <v>华夏中证5G通信主题ETF联接A</v>
       </c>
       <c r="C50" s="1">
-        <v>422.41</v>
+        <v>102.92</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="F50" s="1">
-        <v>7.44</v>
+        <v>9.86</v>
       </c>
       <c r="G50" s="2">
-        <v>0.0179</v>
+        <v>0.1059</v>
       </c>
       <c r="H50" s="1">
-        <v>7.44</v>
+        <v>9.64</v>
       </c>
       <c r="I50" s="2">
-        <v>0.0179</v>
+        <v>0.1059</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>-4.53</v>
       </c>
       <c r="K50" s="1">
-        <v>7.44</v>
+        <v>9.64</v>
       </c>
       <c r="L50" s="1">
-        <v>7.44</v>
+        <v>9.64</v>
       </c>
       <c r="M50" s="2">
-        <v>0.0324</v>
+        <v>0.0079</v>
       </c>
       <c r="N50" s="3">
-        <v>113.22</v>
+        <v>46.08</v>
       </c>
       <c r="O50" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P50" s="2">
-        <v/>
+        <v>-0.0021</v>
       </c>
       <c r="Q50" s="5">
-        <v/>
+        <v>2.2287</v>
       </c>
       <c r="R50" s="5">
-        <v>3.6652</v>
+        <v>2.0195</v>
       </c>
       <c r="S50" s="2">
         <v/>
       </c>
       <c r="T50" s="2">
-        <v>0.0267</v>
+        <v>0.1272</v>
       </c>
       <c r="U50" s="2">
-        <v>0.0165</v>
+        <v>0.0722</v>
       </c>
       <c r="V50" s="2">
-        <v>0.2649</v>
+        <v>0.9212</v>
       </c>
       <c r="W50" s="2">
-        <v>0.4109</v>
+        <v>0.8773</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>161022</v>
+        <v>025833</v>
       </c>
       <c r="B51" t="str">
-        <v>富国创业板ETF联接A</v>
+        <v>天弘中证电网设备主题指数发起C</v>
       </c>
       <c r="C51" s="1">
-        <v>142.92</v>
+        <v>66.37</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.66</v>
+        <v>-0.31</v>
       </c>
       <c r="E51" s="2">
         <v>-0.0046</v>
       </c>
       <c r="F51" s="1">
-        <v>4.62</v>
+        <v>1.42</v>
       </c>
       <c r="G51" s="2">
-        <v>0.0334</v>
+        <v>0.0218</v>
       </c>
       <c r="H51" s="1">
-        <v>3.97</v>
+        <v>1.11</v>
       </c>
       <c r="I51" s="2">
-        <v>0.0334</v>
+        <v>0.0218</v>
       </c>
       <c r="J51" s="1">
-        <v>-0.66</v>
+        <v>-1.21</v>
       </c>
       <c r="K51" s="1">
-        <v>3.97</v>
+        <v>1.11</v>
       </c>
       <c r="L51" s="1">
-        <v>3.97</v>
+        <v>1.11</v>
       </c>
       <c r="M51" s="2">
-        <v>0.011</v>
+        <v>0.0051</v>
       </c>
       <c r="N51" s="3">
-        <v>121.97</v>
+        <v>61.4</v>
       </c>
       <c r="O51" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P51" s="2">
         <v>-0.0046</v>
       </c>
       <c r="Q51" s="5">
-        <v>1.1664</v>
+        <v>1.0759</v>
       </c>
       <c r="R51" s="5">
-        <v>1.1339</v>
+        <v>1.0578</v>
       </c>
       <c r="S51" s="2">
         <v/>
       </c>
       <c r="T51" s="2">
-        <v>0.0616</v>
+        <v>0.074</v>
       </c>
       <c r="U51" s="2">
-        <v>0.0291</v>
+        <v>0</v>
       </c>
       <c r="V51" s="2">
-        <v>0.5021</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>0.4571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>002170</v>
+        <v>007153</v>
       </c>
       <c r="B52" t="str">
-        <v>东吴移动互联混合C</v>
+        <v>汇添富中证银行ETF联接A</v>
       </c>
       <c r="C52" s="1">
-        <v>154.37</v>
+        <v>372.58</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.24</v>
+        <v>-0.31</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.0016</v>
+        <v>-0.0008</v>
       </c>
       <c r="F52" s="1">
-        <v>8.02</v>
+        <v>-0.54</v>
       </c>
       <c r="G52" s="2">
-        <v>0.0548</v>
+        <v>-0.0015</v>
       </c>
       <c r="H52" s="1">
-        <v>7.78</v>
+        <v>-0.85</v>
       </c>
       <c r="I52" s="2">
-        <v>0.0548</v>
+        <v>-0.0015</v>
       </c>
       <c r="J52" s="1">
-        <v>-0.24</v>
+        <v>3.39</v>
       </c>
       <c r="K52" s="1">
-        <v>7.78</v>
+        <v>-3.38</v>
       </c>
       <c r="L52" s="1">
-        <v>7.78</v>
+        <v>-0.85</v>
       </c>
       <c r="M52" s="2">
-        <v>0.0118</v>
+        <v>0.0286</v>
       </c>
       <c r="N52" s="3">
-        <v>25.99</v>
+        <v>251.47</v>
       </c>
       <c r="O52" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P52" s="2">
-        <v>-0.0016</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q52" s="5">
-        <v>5.9303</v>
+        <v>1.4804</v>
       </c>
       <c r="R52" s="5">
-        <v>5.631</v>
+        <v>1.4838</v>
       </c>
       <c r="S52" s="2">
-        <v/>
+        <v>0.0015</v>
       </c>
       <c r="T52" s="2">
-        <v>0.0954</v>
+        <v>-0.0131</v>
       </c>
       <c r="U52" s="2">
-        <v>0.0043</v>
+        <v>0.0482</v>
       </c>
       <c r="V52" s="2">
-        <v>0.7506</v>
+        <v>-0.0374</v>
       </c>
       <c r="W52" s="2">
-        <v>0.7543</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="53">
@@ -4140,498 +4140,569 @@
         <v>东方主题精选混合</v>
       </c>
       <c r="C53" s="1">
-        <v>232.97</v>
+        <v>218.68</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.7</v>
+        <v>-0.67</v>
       </c>
       <c r="E53" s="2">
         <v>-0.003</v>
       </c>
       <c r="F53" s="1">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="G53" s="2">
-        <v>0.0129</v>
+        <v>0.0058</v>
       </c>
       <c r="H53" s="1">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="I53" s="2">
-        <v>0.0129</v>
+        <v>0.0058</v>
       </c>
       <c r="J53" s="1">
-        <v>-0.7</v>
+        <v>-2.37</v>
       </c>
       <c r="K53" s="1">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="L53" s="1">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="M53" s="2">
-        <v>0.0179</v>
+        <v>0.0168</v>
       </c>
       <c r="N53" s="3">
-        <v>207.14</v>
+        <v>195.86</v>
       </c>
       <c r="O53" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P53" s="2">
         <v>-0.003</v>
       </c>
       <c r="Q53" s="5">
-        <v>1.1213</v>
+        <v>1.1131</v>
       </c>
       <c r="R53" s="5">
-        <v>1.1104</v>
+        <v>1.11</v>
       </c>
       <c r="S53" s="2">
         <v/>
       </c>
       <c r="T53" s="2">
-        <v>0.0634</v>
+        <v>0.0542</v>
       </c>
       <c r="U53" s="2">
-        <v>0.0258</v>
+        <v>-0.0316</v>
       </c>
       <c r="V53" s="2">
-        <v>0.1371</v>
+        <v>0.1378</v>
       </c>
       <c r="W53" s="2">
-        <v>0.1228</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>001614</v>
+        <v>010052</v>
       </c>
       <c r="B54" t="str">
-        <v>东方区域发展混合</v>
+        <v>长城久嘉创新成长混合C</v>
       </c>
       <c r="C54" s="1">
-        <v>424.78</v>
+        <v>88.8</v>
       </c>
       <c r="D54" s="1">
-        <v>-1.08</v>
+        <v>-0.82</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.0025</v>
+        <v>-0.0092</v>
       </c>
       <c r="F54" s="1">
-        <v>-0.31</v>
+        <v>8.8</v>
       </c>
       <c r="G54" s="2">
-        <v>-0.0007</v>
+        <v>0.11</v>
       </c>
       <c r="H54" s="1">
-        <v>-1.38</v>
+        <v>7.98</v>
       </c>
       <c r="I54" s="2">
-        <v>-0.0007</v>
+        <v>0.11</v>
       </c>
       <c r="J54" s="1">
-        <v>-1.08</v>
+        <v>0.62</v>
       </c>
       <c r="K54" s="1">
-        <v>-1.39</v>
+        <v>7.98</v>
       </c>
       <c r="L54" s="1">
-        <v>-1.39</v>
+        <v>7.98</v>
       </c>
       <c r="M54" s="2">
-        <v>0.0326</v>
+        <v>0.0068</v>
       </c>
       <c r="N54" s="3">
-        <v>298.22</v>
+        <v>35.21</v>
       </c>
       <c r="O54" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P54" s="2">
-        <v>-0.0025</v>
+        <v>-0.0092</v>
       </c>
       <c r="Q54" s="5">
-        <v>1.4208</v>
+        <v>2.4988</v>
       </c>
       <c r="R54" s="5">
-        <v>1.4254</v>
+        <v>2.2721</v>
       </c>
       <c r="S54" s="2">
-        <v>0.0007</v>
+        <v/>
       </c>
       <c r="T54" s="2">
-        <v>0.0437</v>
+        <v>0.3059</v>
       </c>
       <c r="U54" s="2">
-        <v>-0.0042</v>
+        <v>0.3453</v>
       </c>
       <c r="V54" s="2">
-        <v>0.1122</v>
+        <v>0.61</v>
       </c>
       <c r="W54" s="2">
-        <v>0.1011</v>
+        <v>0.7124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>096001</v>
+        <v>001614</v>
       </c>
       <c r="B55" t="str">
-        <v>大成标普500等权重指数(QDII)A人民币</v>
+        <v>东方区域发展混合</v>
       </c>
       <c r="C55" s="1">
-        <v>92.16</v>
+        <v>404.86</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="F55" s="1">
-        <v>1.92</v>
+        <v>-3.14</v>
       </c>
       <c r="G55" s="2">
-        <v>0.0213</v>
+        <v>-0.0077</v>
       </c>
       <c r="H55" s="1">
-        <v>1.92</v>
+        <v>-4.13</v>
       </c>
       <c r="I55" s="2">
-        <v>0.0213</v>
+        <v>-0.0077</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>-3.83</v>
       </c>
       <c r="K55" s="1">
-        <v>0.46</v>
+        <v>-4.13</v>
       </c>
       <c r="L55" s="1">
-        <v>1.92</v>
+        <v>-4.13</v>
       </c>
       <c r="M55" s="2">
-        <v>0.0071</v>
+        <v>0.0311</v>
       </c>
       <c r="N55" s="3">
-        <v>33.97</v>
+        <v>286.14</v>
       </c>
       <c r="O55" s="4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="P55" s="2">
-        <v/>
+        <v>-0.0024</v>
       </c>
       <c r="Q55" s="5">
-        <v/>
+        <v>1.4114</v>
       </c>
       <c r="R55" s="5">
-        <v>2.6565</v>
+        <v>1.4259</v>
       </c>
       <c r="S55" s="2">
-        <v/>
+        <v>0.0078</v>
       </c>
       <c r="T55" s="2">
-        <v>0.0182</v>
+        <v>0.0353</v>
       </c>
       <c r="U55" s="2">
-        <v>0.0256</v>
+        <v>-0.0612</v>
       </c>
       <c r="V55" s="2">
-        <v>0.0606</v>
+        <v>0.1126</v>
       </c>
       <c r="W55" s="2">
-        <v>0.0645</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>013466</v>
+        <v>005693</v>
       </c>
       <c r="B56" t="str">
-        <v>博时智选量化多因子股票C</v>
+        <v>广发中证军工ETF联接C</v>
       </c>
       <c r="C56" s="1">
-        <v>223.64</v>
+        <v>191.1</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.04</v>
+        <v>-1.11</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.0002</v>
+        <v>-0.0058</v>
       </c>
       <c r="F56" s="1">
-        <v>-1.06</v>
+        <v>18.16</v>
       </c>
       <c r="G56" s="2">
-        <v>-0.0047</v>
+        <v>0.105</v>
       </c>
       <c r="H56" s="1">
-        <v>-1.1</v>
+        <v>17.05</v>
       </c>
       <c r="I56" s="2">
-        <v>-0.0047</v>
+        <v>0.105</v>
       </c>
       <c r="J56" s="1">
-        <v>-0.04</v>
+        <v>-0.48</v>
       </c>
       <c r="K56" s="1">
-        <v>-1.1</v>
+        <v>17.05</v>
       </c>
       <c r="L56" s="1">
-        <v>-1.1</v>
+        <v>17.05</v>
       </c>
       <c r="M56" s="2">
-        <v>0.0171</v>
+        <v>0.0147</v>
       </c>
       <c r="N56" s="3">
-        <v>188.39</v>
+        <v>148.07</v>
       </c>
       <c r="O56" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P56" s="2">
-        <v>-0.0002</v>
+        <v>-0.0058</v>
       </c>
       <c r="Q56" s="5">
-        <v>1.1869</v>
+        <v>1.2831</v>
       </c>
       <c r="R56" s="5">
-        <v>1.1927</v>
+        <v>1.168</v>
       </c>
       <c r="S56" s="2">
-        <v>0.0047</v>
+        <v/>
       </c>
       <c r="T56" s="2">
-        <v>0.0223</v>
+        <v>0.1435</v>
       </c>
       <c r="U56" s="2">
-        <v>-0.0313</v>
+        <v>0.1169</v>
       </c>
       <c r="V56" s="2">
-        <v>0.2863</v>
+        <v>0.213</v>
       </c>
       <c r="W56" s="2">
-        <v>0.3784</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>002611</v>
+        <v>017512</v>
       </c>
       <c r="B57" t="str">
-        <v>博时黄金ETF联接C</v>
+        <v>广发北证50成份指数A</v>
       </c>
       <c r="C57" s="1">
-        <v>69.79</v>
+        <v>485.5</v>
       </c>
       <c r="D57" s="1">
-        <v>0.32</v>
+        <v>-1.39</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0045</v>
+        <v>-0.0029</v>
       </c>
       <c r="F57" s="1">
-        <v>4.12</v>
+        <v>0.62</v>
       </c>
       <c r="G57" s="2">
-        <v>0.0627</v>
+        <v>0.0013</v>
       </c>
       <c r="H57" s="1">
-        <v>4.43</v>
+        <v>-0.78</v>
       </c>
       <c r="I57" s="2">
-        <v>0.0627</v>
+        <v>0.0013</v>
       </c>
       <c r="J57" s="1">
-        <v>0.32</v>
+        <v>-3.48</v>
       </c>
       <c r="K57" s="1">
-        <v>-11.25</v>
+        <v>28.37</v>
       </c>
       <c r="L57" s="1">
-        <v>2.28</v>
+        <v>-0.78</v>
       </c>
       <c r="M57" s="2">
-        <v>0.0053</v>
+        <v>0.0373</v>
       </c>
       <c r="N57" s="3">
-        <v>21.99</v>
+        <v>281.66</v>
       </c>
       <c r="O57" s="4">
-        <v>571</v>
+        <v>39</v>
       </c>
       <c r="P57" s="2">
-        <v>0.0045</v>
+        <v>-0.0029</v>
       </c>
       <c r="Q57" s="5">
-        <v>3.1878</v>
+        <v>1.7188</v>
       </c>
       <c r="R57" s="5">
-        <v>2.9864</v>
+        <v>1.7215</v>
       </c>
       <c r="S57" s="2">
         <v/>
       </c>
       <c r="T57" s="2">
-        <v>0.0663</v>
+        <v>0.0489</v>
       </c>
       <c r="U57" s="2">
-        <v>0.1724</v>
+        <v>-0.0498</v>
       </c>
       <c r="V57" s="2">
-        <v>0.287</v>
+        <v>0.0142</v>
       </c>
       <c r="W57" s="2">
-        <v>0.582</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>010033</v>
+        <v>017963</v>
       </c>
       <c r="B58" t="str">
-        <v>安信成长精选混合A</v>
+        <v>广发医药创新混合发起式C</v>
       </c>
       <c r="C58" s="1">
-        <v>166.38</v>
+        <v>96.97</v>
       </c>
       <c r="D58" s="1">
-        <v>0.24</v>
+        <v>-1.47</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0015</v>
+        <v>-0.0152</v>
       </c>
       <c r="F58" s="1">
-        <v>6.26</v>
+        <v>-3.03</v>
       </c>
       <c r="G58" s="2">
-        <v>0.0391</v>
+        <v>-0.0303</v>
       </c>
       <c r="H58" s="1">
-        <v>6.5</v>
+        <v>-4.51</v>
       </c>
       <c r="I58" s="2">
-        <v>0.0391</v>
+        <v>-0.0303</v>
       </c>
       <c r="J58" s="1">
-        <v>0.24</v>
+        <v>-3.82</v>
       </c>
       <c r="K58" s="1">
-        <v>19.07</v>
+        <v>-4.51</v>
       </c>
       <c r="L58" s="1">
-        <v>6.5</v>
+        <v>-4.51</v>
       </c>
       <c r="M58" s="2">
-        <v>0.0127</v>
+        <v>0.0074</v>
       </c>
       <c r="N58" s="3">
-        <v>107.77</v>
+        <v>79.37</v>
       </c>
       <c r="O58" s="4">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P58" s="2">
-        <v>0.0015</v>
+        <v>-0.0152</v>
       </c>
       <c r="Q58" s="5">
-        <v>1.5461</v>
+        <v>1.2031</v>
       </c>
       <c r="R58" s="5">
-        <v>1.4858</v>
+        <v>1.2599</v>
       </c>
       <c r="S58" s="2">
-        <v/>
+        <v>0.0313</v>
       </c>
       <c r="T58" s="2">
-        <v>0.0742</v>
+        <v>-0.1009</v>
       </c>
       <c r="U58" s="2">
-        <v>0.0044</v>
+        <v>-0.1329</v>
       </c>
       <c r="V58" s="2">
-        <v>0.5986</v>
+        <v>0.0447</v>
       </c>
       <c r="W58" s="2">
-        <v>0.9711</v>
+        <v>0.3702</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
+        <v>002611</v>
+      </c>
+      <c r="B59" t="str">
+        <v>博时黄金ETF联接C</v>
+      </c>
+      <c r="C59" s="1">
+        <v>69.58</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.61</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-0.0232</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.0596</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.0596</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-1.82</v>
+      </c>
+      <c r="K59" s="1">
+        <v>-13.38</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.0053</v>
+      </c>
+      <c r="N59" s="3">
+        <v>21.99</v>
+      </c>
+      <c r="O59" s="4">
+        <v>572</v>
+      </c>
+      <c r="P59" s="2">
+        <v>-0.0232</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>3.0909</v>
+      </c>
+      <c r="R59" s="5">
+        <v>2.9864</v>
+      </c>
+      <c r="S59" s="2">
+        <v/>
+      </c>
+      <c r="T59" s="2">
+        <v>0.0558</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0.1563</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0.2995</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0.5763</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
         <v>汇总</v>
       </c>
-      <c r="B59" t="str">
-        <v/>
-      </c>
-      <c r="C59" s="1">
-        <v>13049.75</v>
-      </c>
-      <c r="D59" s="1">
-        <v>10.94</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.0011</v>
-      </c>
-      <c r="F59" s="1">
-        <v>340.24</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0.0268</v>
-      </c>
-      <c r="H59" t="str">
-        <v/>
-      </c>
-      <c r="I59" t="str">
-        <v/>
-      </c>
-      <c r="J59" s="1">
-        <v>10.94</v>
-      </c>
-      <c r="K59" s="1">
-        <v>360.18</v>
-      </c>
-      <c r="L59" s="1">
-        <v>353.36</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" s="1">
+        <v>13031.47</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42.64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.0045</v>
+      </c>
+      <c r="F60" s="1">
+        <v>302.97</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.0238</v>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K60" s="1">
+        <v>354.62</v>
+      </c>
+      <c r="L60" s="1">
+        <v>347.8</v>
+      </c>
+      <c r="M60" s="2">
         <v>1</v>
       </c>
-      <c r="N59" t="str">
-        <v/>
-      </c>
-      <c r="O59" t="str">
-        <v/>
-      </c>
-      <c r="P59" t="str">
-        <v/>
-      </c>
-      <c r="Q59" t="str">
-        <v/>
-      </c>
-      <c r="R59" t="str">
-        <v/>
-      </c>
-      <c r="S59" t="str">
-        <v/>
-      </c>
-      <c r="T59" t="str">
-        <v/>
-      </c>
-      <c r="U59" t="str">
-        <v/>
-      </c>
-      <c r="V59" t="str">
-        <v/>
-      </c>
-      <c r="W59" t="str">
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <v/>
+      </c>
+      <c r="U60" t="str">
+        <v/>
+      </c>
+      <c r="V60" t="str">
+        <v/>
+      </c>
+      <c r="W60" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4694,7 +4765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K285"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13385,28 +13456,28 @@
         <v/>
       </c>
       <c r="C272" t="str">
-        <v>017512</v>
+        <v>017387</v>
       </c>
       <c r="D272" t="str">
-        <v>广发北证50成份指数A</v>
+        <v>兴全安悦稳健养老一年持有混合(FOF)Y</v>
       </c>
       <c r="E272" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F272">
-        <v>280.05</v>
+        <v>71.58</v>
       </c>
       <c r="H272">
-        <v>479.28</v>
+        <v>84.33</v>
       </c>
       <c r="I272" s="6">
-        <v>479.28</v>
+        <v>84.33</v>
       </c>
       <c r="J272" s="6">
         <v>0</v>
       </c>
       <c r="K272" t="str">
-        <v>修改持仓份额为280.05;修改持有收益为-2.81</v>
+        <v>修改持仓份额为71.58;修改持有收益为4.33</v>
       </c>
     </row>
     <row r="273">
@@ -13417,28 +13488,28 @@
         <v/>
       </c>
       <c r="C273" t="str">
-        <v>017963</v>
+        <v>017512</v>
       </c>
       <c r="D273" t="str">
-        <v>广发医药创新混合发起式C</v>
+        <v>广发北证50成份指数A</v>
       </c>
       <c r="E273" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F273">
-        <v>63.19</v>
+        <v>280.05</v>
       </c>
       <c r="H273">
-        <v>80.26</v>
+        <v>479.28</v>
       </c>
       <c r="I273" s="6">
-        <v>80.26</v>
+        <v>479.28</v>
       </c>
       <c r="J273" s="6">
         <v>0</v>
       </c>
       <c r="K273" t="str">
-        <v>修改持仓份额为63.19;修改持有收益为0.26</v>
+        <v>修改持仓份额为280.05;修改持有收益为-2.81</v>
       </c>
     </row>
     <row r="274">
@@ -13449,28 +13520,28 @@
         <v/>
       </c>
       <c r="C274" t="str">
-        <v>018048</v>
+        <v>017963</v>
       </c>
       <c r="D274" t="str">
-        <v>申万菱信数字产业股票型发起式A</v>
+        <v>广发医药创新混合发起式C</v>
       </c>
       <c r="E274" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F274">
-        <v>245.09</v>
+        <v>63.19</v>
       </c>
       <c r="H274">
-        <v>276.27</v>
+        <v>80.26</v>
       </c>
       <c r="I274" s="6">
-        <v>276.27</v>
+        <v>80.26</v>
       </c>
       <c r="J274" s="6">
         <v>0</v>
       </c>
       <c r="K274" t="str">
-        <v>修改持仓份额为245.09;修改持有收益为-13.75</v>
+        <v>修改持仓份额为63.19;修改持有收益为0.26</v>
       </c>
     </row>
     <row r="275">
@@ -13481,28 +13552,28 @@
         <v/>
       </c>
       <c r="C275" t="str">
-        <v>018495</v>
+        <v>018048</v>
       </c>
       <c r="D275" t="str">
-        <v>融通产业趋势臻选股票C</v>
+        <v>申万菱信数字产业股票型发起式A</v>
       </c>
       <c r="E275" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F275">
-        <v>122.09</v>
+        <v>245.09</v>
       </c>
       <c r="H275">
-        <v>267.91</v>
+        <v>276.27</v>
       </c>
       <c r="I275" s="6">
-        <v>267.91</v>
+        <v>276.27</v>
       </c>
       <c r="J275" s="6">
         <v>0</v>
       </c>
       <c r="K275" t="str">
-        <v>修改持仓份额为122.09;修改持有收益为23.03</v>
+        <v>修改持仓份额为245.09;修改持有收益为-13.75</v>
       </c>
     </row>
     <row r="276">
@@ -13513,28 +13584,28 @@
         <v/>
       </c>
       <c r="C276" t="str">
-        <v>018861</v>
+        <v>018495</v>
       </c>
       <c r="D276" t="str">
-        <v>景顺长城量化港股通股票C</v>
+        <v>融通产业趋势臻选股票C</v>
       </c>
       <c r="E276" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F276">
-        <v>243.87</v>
+        <v>122.09</v>
       </c>
       <c r="H276">
-        <v>277.84</v>
+        <v>267.91</v>
       </c>
       <c r="I276" s="6">
-        <v>277.84</v>
+        <v>267.91</v>
       </c>
       <c r="J276" s="6">
         <v>0</v>
       </c>
       <c r="K276" t="str">
-        <v>修改持仓份额为243.87;修改持有收益为-4.36</v>
+        <v>修改持仓份额为122.09;修改持有收益为23.03</v>
       </c>
     </row>
     <row r="277">
@@ -13545,28 +13616,28 @@
         <v/>
       </c>
       <c r="C277" t="str">
-        <v>020114</v>
+        <v>018861</v>
       </c>
       <c r="D277" t="str">
-        <v>易方达中证沪港深500ETF联接发起式C</v>
+        <v>景顺长城量化港股通股票C</v>
       </c>
       <c r="E277" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F277">
-        <v>52.64</v>
+        <v>243.87</v>
       </c>
       <c r="H277">
-        <v>78.67</v>
+        <v>277.84</v>
       </c>
       <c r="I277" s="6">
-        <v>78.67</v>
+        <v>277.84</v>
       </c>
       <c r="J277" s="6">
         <v>0</v>
       </c>
       <c r="K277" t="str">
-        <v>修改持仓份额为52.64;修改持有收益为-0.04</v>
+        <v>修改持仓份额为243.87;修改持有收益为-4.36</v>
       </c>
     </row>
     <row r="278">
@@ -13577,28 +13648,28 @@
         <v/>
       </c>
       <c r="C278" t="str">
-        <v>020422</v>
+        <v>020114</v>
       </c>
       <c r="D278" t="str">
-        <v>华夏中证港股通内地金融ETF发起式联接A</v>
+        <v>易方达中证沪港深500ETF联接发起式C</v>
       </c>
       <c r="E278" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F278">
-        <v>155.77</v>
+        <v>52.64</v>
       </c>
       <c r="H278">
-        <v>277.69</v>
+        <v>78.67</v>
       </c>
       <c r="I278" s="6">
-        <v>277.69</v>
+        <v>78.67</v>
       </c>
       <c r="J278" s="6">
         <v>0</v>
       </c>
       <c r="K278" t="str">
-        <v>修改持仓份额为155.77;修改持有收益为1.09</v>
+        <v>修改持仓份额为52.64;修改持有收益为-0.04</v>
       </c>
     </row>
     <row r="279">
@@ -13609,28 +13680,28 @@
         <v/>
       </c>
       <c r="C279" t="str">
-        <v>025833</v>
+        <v>020422</v>
       </c>
       <c r="D279" t="str">
-        <v>天弘中证电网设备主题指数发起C</v>
+        <v>华夏中证港股通内地金融ETF发起式联接A</v>
       </c>
       <c r="E279" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F279">
-        <v>61.4</v>
+        <v>155.77</v>
       </c>
       <c r="H279">
-        <v>66.79</v>
+        <v>277.69</v>
       </c>
       <c r="I279" s="6">
-        <v>66.79</v>
+        <v>277.69</v>
       </c>
       <c r="J279" s="6">
         <v>0</v>
       </c>
       <c r="K279" t="str">
-        <v>修改持仓份额为61.40;修改持有收益为1.84</v>
+        <v>修改持仓份额为155.77;修改持有收益为1.09</v>
       </c>
     </row>
     <row r="280">
@@ -13641,28 +13712,28 @@
         <v/>
       </c>
       <c r="C280" t="str">
-        <v>161022</v>
+        <v>025833</v>
       </c>
       <c r="D280" t="str">
-        <v>富国创业板ETF联接A</v>
+        <v>天弘中证电网设备主题指数发起C</v>
       </c>
       <c r="E280" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F280">
-        <v>121.97</v>
+        <v>61.4</v>
       </c>
       <c r="H280">
-        <v>142.34</v>
+        <v>66.79</v>
       </c>
       <c r="I280" s="6">
-        <v>142.34</v>
+        <v>66.79</v>
       </c>
       <c r="J280" s="6">
         <v>0</v>
       </c>
       <c r="K280" t="str">
-        <v>修改持仓份额为121.97;修改持有收益为4.04</v>
+        <v>修改持仓份额为61.40;修改持有收益为1.84</v>
       </c>
     </row>
     <row r="281">
@@ -13673,28 +13744,28 @@
         <v/>
       </c>
       <c r="C281" t="str">
-        <v>165520</v>
+        <v>161022</v>
       </c>
       <c r="D281" t="str">
-        <v>中信保诚中证800有色指数(LOF)A</v>
+        <v>富国创业板ETF联接A</v>
       </c>
       <c r="E281" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F281">
-        <v>29.62</v>
+        <v>121.97</v>
       </c>
       <c r="H281">
-        <v>82.91</v>
+        <v>142.34</v>
       </c>
       <c r="I281" s="6">
-        <v>82.91</v>
+        <v>142.34</v>
       </c>
       <c r="J281" s="6">
         <v>0</v>
       </c>
       <c r="K281" t="str">
-        <v>修改持仓份额为29.62;修改持有收益为5.69</v>
+        <v>修改持仓份额为121.97;修改持有收益为4.04</v>
       </c>
     </row>
     <row r="282">
@@ -13705,28 +13776,28 @@
         <v/>
       </c>
       <c r="C282" t="str">
-        <v>257060</v>
+        <v>165520</v>
       </c>
       <c r="D282" t="str">
-        <v>国联安上证商品ETF联接A</v>
+        <v>中信保诚中证800有色指数(LOF)A</v>
       </c>
       <c r="E282" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F282">
-        <v>237.11</v>
+        <v>29.62</v>
       </c>
       <c r="H282">
-        <v>351.28</v>
+        <v>82.91</v>
       </c>
       <c r="I282" s="6">
-        <v>351.28</v>
+        <v>82.91</v>
       </c>
       <c r="J282" s="6">
         <v>0</v>
       </c>
       <c r="K282" t="str">
-        <v>修改持仓份额为237.11;修改持有收益为10.63</v>
+        <v>修改持仓份额为29.62;修改持有收益为5.69</v>
       </c>
     </row>
     <row r="283">
@@ -13737,28 +13808,28 @@
         <v/>
       </c>
       <c r="C283" t="str">
-        <v>400032</v>
+        <v>257060</v>
       </c>
       <c r="D283" t="str">
-        <v>东方主题精选混合</v>
+        <v>国联安上证商品ETF联接A</v>
       </c>
       <c r="E283" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F283">
-        <v>207.14</v>
+        <v>237.11</v>
       </c>
       <c r="H283">
-        <v>230.3</v>
+        <v>351.28</v>
       </c>
       <c r="I283" s="6">
-        <v>230.3</v>
+        <v>351.28</v>
       </c>
       <c r="J283" s="6">
         <v>0</v>
       </c>
       <c r="K283" t="str">
-        <v>修改持仓份额为207.14;修改持有收益为0.30</v>
+        <v>修改持仓份额为237.11;修改持有收益为10.63</v>
       </c>
     </row>
     <row r="284">
@@ -13769,28 +13840,28 @@
         <v/>
       </c>
       <c r="C284" t="str">
-        <v>519180</v>
+        <v>400032</v>
       </c>
       <c r="D284" t="str">
-        <v>万家180指数A</v>
+        <v>东方主题精选混合</v>
       </c>
       <c r="E284" t="str">
         <v>修改持仓</v>
       </c>
       <c r="F284">
-        <v>274</v>
+        <v>207.14</v>
       </c>
       <c r="H284">
-        <v>318.94</v>
+        <v>230.3</v>
       </c>
       <c r="I284" s="6">
-        <v>318.94</v>
+        <v>230.3</v>
       </c>
       <c r="J284" s="6">
         <v>0</v>
       </c>
       <c r="K284" t="str">
-        <v>修改持仓份额为274.00;修改持有收益为-0.65</v>
+        <v>修改持仓份额为207.14;修改持有收益为0.30</v>
       </c>
     </row>
     <row r="285">
@@ -13801,34 +13872,1762 @@
         <v/>
       </c>
       <c r="C285" t="str">
+        <v>519180</v>
+      </c>
+      <c r="D285" t="str">
+        <v>万家180指数A</v>
+      </c>
+      <c r="E285" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F285">
+        <v>274</v>
+      </c>
+      <c r="H285">
+        <v>318.94</v>
+      </c>
+      <c r="I285" s="6">
+        <v>318.94</v>
+      </c>
+      <c r="J285" s="6">
+        <v>0</v>
+      </c>
+      <c r="K285" t="str">
+        <v>修改持仓份额为274.00;修改持有收益为-0.65</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>2025-12-24</v>
+      </c>
+      <c r="B286" t="str">
+        <v/>
+      </c>
+      <c r="C286" t="str">
         <v>519196</v>
       </c>
-      <c r="D285" t="str">
+      <c r="D286" t="str">
         <v>万家新兴蓝筹A</v>
       </c>
-      <c r="E285" t="str">
-        <v>修改持仓</v>
-      </c>
-      <c r="F285">
+      <c r="E286" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F286">
         <v>113.54</v>
       </c>
-      <c r="H285">
+      <c r="H286">
         <v>509.7</v>
       </c>
-      <c r="I285" s="6">
+      <c r="I286" s="6">
         <v>509.7</v>
       </c>
-      <c r="J285" s="6">
-        <v>0</v>
-      </c>
-      <c r="K285" t="str">
+      <c r="J286" s="6">
+        <v>0</v>
+      </c>
+      <c r="K286" t="str">
         <v>修改持仓份额为113.54;修改持有收益为39.31</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="B287" t="str">
+        <v/>
+      </c>
+      <c r="C287" t="str">
+        <v>012061</v>
+      </c>
+      <c r="D287" t="str">
+        <v>富国全球消费精选混合(QDII)美元现汇</v>
+      </c>
+      <c r="E287" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F287">
+        <v>1040.78</v>
+      </c>
+      <c r="H287">
+        <v>243.23</v>
+      </c>
+      <c r="I287" s="6">
+        <v>243.23</v>
+      </c>
+      <c r="J287" s="6">
+        <v>0</v>
+      </c>
+      <c r="K287" t="str">
+        <v>修改持仓份额为1040.78;修改持有收益为-1.14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B288" t="str">
+        <v/>
+      </c>
+      <c r="C288" t="str">
+        <v>006105</v>
+      </c>
+      <c r="D288" t="str">
+        <v>宏利印度股票(QDII)A</v>
+      </c>
+      <c r="E288" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F288">
+        <v>145.77</v>
+      </c>
+      <c r="H288">
+        <v>211.36</v>
+      </c>
+      <c r="I288" s="6">
+        <v>211.36</v>
+      </c>
+      <c r="J288" s="6">
+        <v>0</v>
+      </c>
+      <c r="K288" t="str">
+        <v>修改持仓份额为145.77;修改持有收益为-4.06</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B289" t="str">
+        <v/>
+      </c>
+      <c r="C289" t="str">
+        <v>006373</v>
+      </c>
+      <c r="D289" t="str">
+        <v>国富全球科技互联混合(QDII)人民币A</v>
+      </c>
+      <c r="E289" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F289">
+        <v>23.06</v>
+      </c>
+      <c r="H289">
+        <v>103.69</v>
+      </c>
+      <c r="I289" s="6">
+        <v>103.69</v>
+      </c>
+      <c r="J289" s="6">
+        <v>0</v>
+      </c>
+      <c r="K289" t="str">
+        <v>修改持仓份额为23.06;修改持有收益为9.82</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B290" t="str">
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <v>006680</v>
+      </c>
+      <c r="D290" t="str">
+        <v>广发道琼斯石油指数(QDII-LOF)C美元现汇</v>
+      </c>
+      <c r="E290" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F290">
+        <v>122.41</v>
+      </c>
+      <c r="H290">
+        <v>37.31</v>
+      </c>
+      <c r="I290" s="6">
+        <v>37.31</v>
+      </c>
+      <c r="J290" s="6">
+        <v>0</v>
+      </c>
+      <c r="K290" t="str">
+        <v>修改持仓份额为122.41;修改持有收益为-2.20</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B291" t="str">
+        <v/>
+      </c>
+      <c r="C291" t="str">
+        <v>007721</v>
+      </c>
+      <c r="D291" t="str">
+        <v>天弘标普500发起(QDII-FOF)A</v>
+      </c>
+      <c r="E291" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F291">
+        <v>357.98</v>
+      </c>
+      <c r="H291">
+        <v>760.17</v>
+      </c>
+      <c r="I291" s="6">
+        <v>760.17</v>
+      </c>
+      <c r="J291" s="6">
+        <v>0</v>
+      </c>
+      <c r="K291" t="str">
+        <v>修改持仓份额为357.98;修改持有收益为27.19</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B292" t="str">
+        <v/>
+      </c>
+      <c r="C292" t="str">
+        <v>007844</v>
+      </c>
+      <c r="D292" t="str">
+        <v>华宝油气C</v>
+      </c>
+      <c r="E292" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F292">
+        <v>490.13</v>
+      </c>
+      <c r="H292">
+        <v>333.09</v>
+      </c>
+      <c r="I292" s="6">
+        <v>333.09</v>
+      </c>
+      <c r="J292" s="6">
+        <v>0</v>
+      </c>
+      <c r="K292" t="str">
+        <v>修改持仓份额为490.13;修改持有收益为-12.04</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B293" t="str">
+        <v/>
+      </c>
+      <c r="C293" t="str">
+        <v>018048</v>
+      </c>
+      <c r="D293" t="str">
+        <v>申万菱信数字产业股票型发起式A</v>
+      </c>
+      <c r="E293" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F293">
+        <v>199.14</v>
+      </c>
+      <c r="H293">
+        <v>227.6</v>
+      </c>
+      <c r="I293" s="6">
+        <v>227.6</v>
+      </c>
+      <c r="J293" s="6">
+        <v>0</v>
+      </c>
+      <c r="K293" t="str">
+        <v>修改持仓份额为199.14;修改持有收益为-7.28</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B294" t="str">
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <v>040047</v>
+      </c>
+      <c r="D294" t="str">
+        <v>华安纳斯达克100ETF联接(QDII)A(美元现钞)</v>
+      </c>
+      <c r="E294" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F294">
+        <v>293.32</v>
+      </c>
+      <c r="H294">
+        <v>310.48</v>
+      </c>
+      <c r="I294" s="6">
+        <v>310.48</v>
+      </c>
+      <c r="J294" s="6">
+        <v>0</v>
+      </c>
+      <c r="K294" t="str">
+        <v>修改持仓份额为293.32;修改持有收益为2.92</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B295" t="str">
+        <v/>
+      </c>
+      <c r="C295" t="str">
+        <v>096001</v>
+      </c>
+      <c r="D295" t="str">
+        <v>大成标普500等权重指数(QDII)A人民币</v>
+      </c>
+      <c r="E295" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F295">
+        <v>37.66</v>
+      </c>
+      <c r="H295">
+        <v>102.13</v>
+      </c>
+      <c r="I295" s="6">
+        <v>102.13</v>
+      </c>
+      <c r="J295" s="6">
+        <v>0</v>
+      </c>
+      <c r="K295" t="str">
+        <v>修改持仓份额为37.66;修改持有收益为1.89</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B296" t="str">
+        <v/>
+      </c>
+      <c r="C296" t="str">
+        <v>100055</v>
+      </c>
+      <c r="D296" t="str">
+        <v>富国全球科技互联网股票(QDII)A</v>
+      </c>
+      <c r="E296" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F296">
+        <v>115.91</v>
+      </c>
+      <c r="H296">
+        <v>431.38</v>
+      </c>
+      <c r="I296" s="6">
+        <v>431.38</v>
+      </c>
+      <c r="J296" s="6">
+        <v>0</v>
+      </c>
+      <c r="K296" t="str">
+        <v>修改持仓份额为115.91;修改持有收益为6.41</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B297" t="str">
+        <v/>
+      </c>
+      <c r="C297" t="str">
+        <v>162415</v>
+      </c>
+      <c r="D297" t="str">
+        <v>美国消费</v>
+      </c>
+      <c r="E297" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F297">
+        <v>123.85</v>
+      </c>
+      <c r="H297">
+        <v>385.05</v>
+      </c>
+      <c r="I297" s="6">
+        <v>385.05</v>
+      </c>
+      <c r="J297" s="6">
+        <v>0</v>
+      </c>
+      <c r="K297" t="str">
+        <v>修改持仓份额为123.85;修改持有收益为10.02</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B298" t="str">
+        <v/>
+      </c>
+      <c r="C298" t="str">
+        <v>501225</v>
+      </c>
+      <c r="D298" t="str">
+        <v>景顺长城全球半导体芯片股票A(QDII-LOF)(人民币)</v>
+      </c>
+      <c r="E298" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F298">
+        <v>237.42</v>
+      </c>
+      <c r="H298">
+        <v>476.81</v>
+      </c>
+      <c r="I298" s="6">
+        <v>476.81</v>
+      </c>
+      <c r="J298" s="6">
+        <v>0</v>
+      </c>
+      <c r="K298" t="str">
+        <v>修改持仓份额为237.42;修改持有收益为25.89</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B299" t="str">
+        <v/>
+      </c>
+      <c r="C299" t="str">
+        <v>001270</v>
+      </c>
+      <c r="D299" t="str">
+        <v>英大灵活配置A</v>
+      </c>
+      <c r="E299" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F299">
+        <v>73.55</v>
+      </c>
+      <c r="H299">
+        <v>107.35</v>
+      </c>
+      <c r="I299" s="6">
+        <v>107.35</v>
+      </c>
+      <c r="J299" s="6">
+        <v>0</v>
+      </c>
+      <c r="K299" t="str">
+        <v>修改持仓份额为73.55;修改持有收益为7.35</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B300" t="str">
+        <v/>
+      </c>
+      <c r="C300" t="str">
+        <v>001614</v>
+      </c>
+      <c r="D300" t="str">
+        <v>东方区域发展混合</v>
+      </c>
+      <c r="E300" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F300">
+        <v>286.14</v>
+      </c>
+      <c r="H300">
+        <v>404.86</v>
+      </c>
+      <c r="I300" s="6">
+        <v>404.86</v>
+      </c>
+      <c r="J300" s="6">
+        <v>0</v>
+      </c>
+      <c r="K300" t="str">
+        <v>修改持仓份额为286.14;修改持有收益为-3.14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B301" t="str">
+        <v/>
+      </c>
+      <c r="C301" t="str">
+        <v>002170</v>
+      </c>
+      <c r="D301" t="str">
+        <v>东吴移动互联混合C</v>
+      </c>
+      <c r="E301" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F301">
+        <v>25.99</v>
+      </c>
+      <c r="H301">
+        <v>154.53</v>
+      </c>
+      <c r="I301" s="6">
+        <v>154.53</v>
+      </c>
+      <c r="J301" s="6">
+        <v>0</v>
+      </c>
+      <c r="K301" t="str">
+        <v>修改持仓份额为25.99;修改持有收益为8.19</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B302" t="str">
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <v>002179</v>
+      </c>
+      <c r="D302" t="str">
+        <v>华安事件驱动量化混合A</v>
+      </c>
+      <c r="E302" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F302">
+        <v>144.39</v>
+      </c>
+      <c r="H302">
+        <v>355.91</v>
+      </c>
+      <c r="I302" s="6">
+        <v>355.91</v>
+      </c>
+      <c r="J302" s="6">
+        <v>0</v>
+      </c>
+      <c r="K302" t="str">
+        <v>修改持仓份额为144.39;修改持有收益为7.02</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B303" t="str">
+        <v/>
+      </c>
+      <c r="C303" t="str">
+        <v>004206</v>
+      </c>
+      <c r="D303" t="str">
+        <v>华商元亨混合A</v>
+      </c>
+      <c r="E303" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F303">
+        <v>85.62</v>
+      </c>
+      <c r="H303">
+        <v>255.77</v>
+      </c>
+      <c r="I303" s="6">
+        <v>255.77</v>
+      </c>
+      <c r="J303" s="6">
+        <v>0</v>
+      </c>
+      <c r="K303" t="str">
+        <v>修改持仓份额为85.62;修改持有收益为6.31</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B304" t="str">
+        <v/>
+      </c>
+      <c r="C304" t="str">
+        <v>004752</v>
+      </c>
+      <c r="D304" t="str">
+        <v>广发中证传媒ETF联接A</v>
+      </c>
+      <c r="E304" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F304">
+        <v>102.52</v>
+      </c>
+      <c r="H304">
+        <v>99.68</v>
+      </c>
+      <c r="I304" s="6">
+        <v>99.68</v>
+      </c>
+      <c r="J304" s="6">
+        <v>0</v>
+      </c>
+      <c r="K304" t="str">
+        <v>修改持仓份额为102.52;修改持有收益为-1.08</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B305" t="str">
+        <v/>
+      </c>
+      <c r="C305" t="str">
+        <v>005063</v>
+      </c>
+      <c r="D305" t="str">
+        <v>广发中证全指家用电器ETF联接A</v>
+      </c>
+      <c r="E305" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F305">
+        <v>61.03</v>
+      </c>
+      <c r="H305">
+        <v>99.54</v>
+      </c>
+      <c r="I305" s="6">
+        <v>99.54</v>
+      </c>
+      <c r="J305" s="6">
+        <v>0</v>
+      </c>
+      <c r="K305" t="str">
+        <v>修改持仓份额为61.03;修改持有收益为1.23</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B306" t="str">
+        <v/>
+      </c>
+      <c r="C306" t="str">
+        <v>005551</v>
+      </c>
+      <c r="D306" t="str">
+        <v>汇安成长优选混合C</v>
+      </c>
+      <c r="E306" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F306">
+        <v>35.28</v>
+      </c>
+      <c r="H306">
+        <v>83.44</v>
+      </c>
+      <c r="I306" s="6">
+        <v>83.44</v>
+      </c>
+      <c r="J306" s="6">
+        <v>0</v>
+      </c>
+      <c r="K306" t="str">
+        <v>修改持仓份额为35.28;修改持有收益为3.44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B307" t="str">
+        <v/>
+      </c>
+      <c r="C307" t="str">
+        <v>005693</v>
+      </c>
+      <c r="D307" t="str">
+        <v>广发中证军工ETF联接C</v>
+      </c>
+      <c r="E307" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F307">
+        <v>148.07</v>
+      </c>
+      <c r="H307">
+        <v>191.1</v>
+      </c>
+      <c r="I307" s="6">
+        <v>191.1</v>
+      </c>
+      <c r="J307" s="6">
+        <v>0</v>
+      </c>
+      <c r="K307" t="str">
+        <v>修改持仓份额为148.07;修改持有收益为18.16</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B308" t="str">
+        <v/>
+      </c>
+      <c r="C308" t="str">
+        <v>006195</v>
+      </c>
+      <c r="D308" t="str">
+        <v>国金量化多因子A</v>
+      </c>
+      <c r="E308" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F308">
+        <v>103.37</v>
+      </c>
+      <c r="H308">
+        <v>311.89</v>
+      </c>
+      <c r="I308" s="6">
+        <v>311.89</v>
+      </c>
+      <c r="J308" s="6">
+        <v>0</v>
+      </c>
+      <c r="K308" t="str">
+        <v>修改持仓份额为103.37;修改持有收益为7.59</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B309" t="str">
+        <v/>
+      </c>
+      <c r="C309" t="str">
+        <v>006486</v>
+      </c>
+      <c r="D309" t="str">
+        <v>广发中证1000ETF联接A</v>
+      </c>
+      <c r="E309" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F309">
+        <v>260.46</v>
+      </c>
+      <c r="H309">
+        <v>415.69</v>
+      </c>
+      <c r="I309" s="6">
+        <v>415.69</v>
+      </c>
+      <c r="J309" s="6">
+        <v>0</v>
+      </c>
+      <c r="K309" t="str">
+        <v>修改持仓份额为260.46;修改持有收益为10.02</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B310" t="str">
+        <v/>
+      </c>
+      <c r="C310" t="str">
+        <v>006719</v>
+      </c>
+      <c r="D310" t="str">
+        <v>国融融盛龙头严选混合C</v>
+      </c>
+      <c r="E310" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F310">
+        <v>118.88</v>
+      </c>
+      <c r="H310">
+        <v>224.06</v>
+      </c>
+      <c r="I310" s="6">
+        <v>224.06</v>
+      </c>
+      <c r="J310" s="6">
+        <v>0</v>
+      </c>
+      <c r="K310" t="str">
+        <v>修改持仓份额为118.88;修改持有收益为-9.23</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B311" t="str">
+        <v/>
+      </c>
+      <c r="C311" t="str">
+        <v>007153</v>
+      </c>
+      <c r="D311" t="str">
+        <v>汇添富中证银行ETF联接A</v>
+      </c>
+      <c r="E311" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F311">
+        <v>251.47</v>
+      </c>
+      <c r="H311">
+        <v>372.58</v>
+      </c>
+      <c r="I311" s="6">
+        <v>372.58</v>
+      </c>
+      <c r="J311" s="6">
+        <v>0</v>
+      </c>
+      <c r="K311" t="str">
+        <v>修改持仓份额为251.47;修改持有收益为-0.54</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B312" t="str">
+        <v/>
+      </c>
+      <c r="C312" t="str">
+        <v>007605</v>
+      </c>
+      <c r="D312" t="str">
+        <v>嘉实沪深300红利低波动ETF联接A</v>
+      </c>
+      <c r="E312" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F312">
+        <v>55.55</v>
+      </c>
+      <c r="H312">
+        <v>70.85</v>
+      </c>
+      <c r="I312" s="6">
+        <v>70.85</v>
+      </c>
+      <c r="J312" s="6">
+        <v>0</v>
+      </c>
+      <c r="K312" t="str">
+        <v>修改持仓份额为55.55;修改持有收益为-0.54</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B313" t="str">
+        <v/>
+      </c>
+      <c r="C313" t="str">
+        <v>007817</v>
+      </c>
+      <c r="D313" t="str">
+        <v>国泰中证全指通信设备ETF联接A</v>
+      </c>
+      <c r="E313" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F313">
+        <v>40.84</v>
+      </c>
+      <c r="H313">
+        <v>120.19</v>
+      </c>
+      <c r="I313" s="6">
+        <v>120.19</v>
+      </c>
+      <c r="J313" s="6">
+        <v>0</v>
+      </c>
+      <c r="K313" t="str">
+        <v>修改持仓份额为40.84;修改持有收益为18.13</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B314" t="str">
+        <v/>
+      </c>
+      <c r="C314" t="str">
+        <v>008086</v>
+      </c>
+      <c r="D314" t="str">
+        <v>华夏中证5G通信主题ETF联接A</v>
+      </c>
+      <c r="E314" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F314">
+        <v>46.08</v>
+      </c>
+      <c r="H314">
+        <v>102.92</v>
+      </c>
+      <c r="I314" s="6">
+        <v>102.92</v>
+      </c>
+      <c r="J314" s="6">
+        <v>0</v>
+      </c>
+      <c r="K314" t="str">
+        <v>修改持仓份额为46.08;修改持有收益为9.86</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B315" t="str">
+        <v/>
+      </c>
+      <c r="C315" t="str">
+        <v>008811</v>
+      </c>
+      <c r="D315" t="str">
+        <v>鹏华科技创新混合</v>
+      </c>
+      <c r="E315" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F315">
+        <v>219.45</v>
+      </c>
+      <c r="H315">
+        <v>372.84</v>
+      </c>
+      <c r="I315" s="6">
+        <v>372.84</v>
+      </c>
+      <c r="J315" s="6">
+        <v>0</v>
+      </c>
+      <c r="K315" t="str">
+        <v>修改持仓份额为219.45;修改持有收益为12.01</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B316" t="str">
+        <v/>
+      </c>
+      <c r="C316" t="str">
+        <v>010033</v>
+      </c>
+      <c r="D316" t="str">
+        <v>安信成长精选混合A</v>
+      </c>
+      <c r="E316" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F316">
+        <v>107.77</v>
+      </c>
+      <c r="H316">
+        <v>166.94</v>
+      </c>
+      <c r="I316" s="6">
+        <v>166.94</v>
+      </c>
+      <c r="J316" s="6">
+        <v>0</v>
+      </c>
+      <c r="K316" t="str">
+        <v>修改持仓份额为107.77;修改持有收益为6.82</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B317" t="str">
+        <v/>
+      </c>
+      <c r="C317" t="str">
+        <v>010052</v>
+      </c>
+      <c r="D317" t="str">
+        <v>长城久嘉创新成长混合C</v>
+      </c>
+      <c r="E317" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F317">
+        <v>35.21</v>
+      </c>
+      <c r="H317">
+        <v>88.8</v>
+      </c>
+      <c r="I317" s="6">
+        <v>88.8</v>
+      </c>
+      <c r="J317" s="6">
+        <v>0</v>
+      </c>
+      <c r="K317" t="str">
+        <v>修改持仓份额为35.21;修改持有收益为8.80</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B318" t="str">
+        <v/>
+      </c>
+      <c r="C318" t="str">
+        <v>010341</v>
+      </c>
+      <c r="D318" t="str">
+        <v>招商产业精选股票A</v>
+      </c>
+      <c r="E318" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F318">
+        <v>265.06</v>
+      </c>
+      <c r="H318">
+        <v>314.36</v>
+      </c>
+      <c r="I318" s="6">
+        <v>314.36</v>
+      </c>
+      <c r="J318" s="6">
+        <v>0</v>
+      </c>
+      <c r="K318" t="str">
+        <v>修改持仓份额为265.06;修改持有收益为-3.16</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B319" t="str">
+        <v/>
+      </c>
+      <c r="C319" t="str">
+        <v>010391</v>
+      </c>
+      <c r="D319" t="str">
+        <v>易方达战略新兴产业股票A</v>
+      </c>
+      <c r="E319" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F319">
+        <v>182.87</v>
+      </c>
+      <c r="H319">
+        <v>318.14</v>
+      </c>
+      <c r="I319" s="6">
+        <v>318.14</v>
+      </c>
+      <c r="J319" s="6">
+        <v>0</v>
+      </c>
+      <c r="K319" t="str">
+        <v>修改持仓份额为182.87;修改持有收益为20.32</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B320" t="str">
+        <v/>
+      </c>
+      <c r="C320" t="str">
+        <v>011937</v>
+      </c>
+      <c r="D320" t="str">
+        <v>华夏阿尔法精选混合C</v>
+      </c>
+      <c r="E320" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F320">
+        <v>182.7</v>
+      </c>
+      <c r="H320">
+        <v>171.96</v>
+      </c>
+      <c r="I320" s="6">
+        <v>171.96</v>
+      </c>
+      <c r="J320" s="6">
+        <v>0</v>
+      </c>
+      <c r="K320" t="str">
+        <v>修改持仓份额为182.70;修改持有收益为1.96</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B321" t="str">
+        <v/>
+      </c>
+      <c r="C321" t="str">
+        <v>012728</v>
+      </c>
+      <c r="D321" t="str">
+        <v>国泰中证动漫游戏ETF联接A</v>
+      </c>
+      <c r="E321" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F321">
+        <v>109.73</v>
+      </c>
+      <c r="H321">
+        <v>167.75</v>
+      </c>
+      <c r="I321" s="6">
+        <v>167.75</v>
+      </c>
+      <c r="J321" s="6">
+        <v>0</v>
+      </c>
+      <c r="K321" t="str">
+        <v>修改持仓份额为109.73;修改持有收益为2.77</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B322" t="str">
+        <v/>
+      </c>
+      <c r="C322" t="str">
+        <v>012863</v>
+      </c>
+      <c r="D322" t="str">
+        <v>汇添富中证电池主题ETF发起式联接C</v>
+      </c>
+      <c r="E322" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F322">
+        <v>267.88</v>
+      </c>
+      <c r="H322">
+        <v>214.2</v>
+      </c>
+      <c r="I322" s="6">
+        <v>214.2</v>
+      </c>
+      <c r="J322" s="6">
+        <v>0</v>
+      </c>
+      <c r="K322" t="str">
+        <v>修改持仓份额为267.88;修改持有收益为-0.98</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B323" t="str">
+        <v/>
+      </c>
+      <c r="C323" t="str">
+        <v>013048</v>
+      </c>
+      <c r="D323" t="str">
+        <v>富国中证新能源汽车指数C</v>
+      </c>
+      <c r="E323" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F323">
+        <v>156.89</v>
+      </c>
+      <c r="H323">
+        <v>181.05</v>
+      </c>
+      <c r="I323" s="6">
+        <v>181.05</v>
+      </c>
+      <c r="J323" s="6">
+        <v>0</v>
+      </c>
+      <c r="K323" t="str">
+        <v>修改持仓份额为156.89;修改持有收益为5.40</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B324" t="str">
+        <v/>
+      </c>
+      <c r="C324" t="str">
+        <v>013466</v>
+      </c>
+      <c r="D324" t="str">
+        <v>博时智选量化多因子股票C</v>
+      </c>
+      <c r="E324" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F324">
+        <v>173.39</v>
+      </c>
+      <c r="H324">
+        <v>205.22</v>
+      </c>
+      <c r="I324" s="6">
+        <v>205.22</v>
+      </c>
+      <c r="J324" s="6">
+        <v>0</v>
+      </c>
+      <c r="K324" t="str">
+        <v>修改持仓份额为173.39;修改持有收益为-1.59</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B325" t="str">
+        <v/>
+      </c>
+      <c r="C325" t="str">
+        <v>013942</v>
+      </c>
+      <c r="D325" t="str">
+        <v>华宝中证稀有金属指数增强发起A</v>
+      </c>
+      <c r="E325" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F325">
+        <v>72.77</v>
+      </c>
+      <c r="H325">
+        <v>75.51</v>
+      </c>
+      <c r="I325" s="6">
+        <v>75.51</v>
+      </c>
+      <c r="J325" s="6">
+        <v>0</v>
+      </c>
+      <c r="K325" t="str">
+        <v>修改持仓份额为72.77;修改持有收益为5.51</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B326" t="str">
+        <v/>
+      </c>
+      <c r="C326" t="str">
+        <v>017512</v>
+      </c>
+      <c r="D326" t="str">
+        <v>广发北证50成份指数A</v>
+      </c>
+      <c r="E326" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F326">
+        <v>281.66</v>
+      </c>
+      <c r="H326">
+        <v>485.49</v>
+      </c>
+      <c r="I326" s="6">
+        <v>485.49</v>
+      </c>
+      <c r="J326" s="6">
+        <v>0</v>
+      </c>
+      <c r="K326" t="str">
+        <v>修改持仓份额为281.66;修改持有收益为0.61</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B327" t="str">
+        <v/>
+      </c>
+      <c r="C327" t="str">
+        <v>017963</v>
+      </c>
+      <c r="D327" t="str">
+        <v>广发医药创新混合发起式C</v>
+      </c>
+      <c r="E327" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F327">
+        <v>79.37</v>
+      </c>
+      <c r="H327">
+        <v>96.97</v>
+      </c>
+      <c r="I327" s="6">
+        <v>96.97</v>
+      </c>
+      <c r="J327" s="6">
+        <v>0</v>
+      </c>
+      <c r="K327" t="str">
+        <v>修改持仓份额为79.37;修改持有收益为-3.03</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B328" t="str">
+        <v/>
+      </c>
+      <c r="C328" t="str">
+        <v>018495</v>
+      </c>
+      <c r="D328" t="str">
+        <v>融通产业趋势臻选股票C</v>
+      </c>
+      <c r="E328" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F328">
+        <v>131.27</v>
+      </c>
+      <c r="H328">
+        <v>286.73</v>
+      </c>
+      <c r="I328" s="6">
+        <v>286.73</v>
+      </c>
+      <c r="J328" s="6">
+        <v>0</v>
+      </c>
+      <c r="K328" t="str">
+        <v>修改持仓份额为131.27;修改持有收益为21.85</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B329" t="str">
+        <v/>
+      </c>
+      <c r="C329" t="str">
+        <v>018861</v>
+      </c>
+      <c r="D329" t="str">
+        <v>景顺长城量化港股通股票C</v>
+      </c>
+      <c r="E329" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F329">
+        <v>243.87</v>
+      </c>
+      <c r="H329">
+        <v>275.13</v>
+      </c>
+      <c r="I329" s="6">
+        <v>275.13</v>
+      </c>
+      <c r="J329" s="6">
+        <v>0</v>
+      </c>
+      <c r="K329" t="str">
+        <v>修改持仓份额为243.87;修改持有收益为-7.07</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B330" t="str">
+        <v/>
+      </c>
+      <c r="C330" t="str">
+        <v>020114</v>
+      </c>
+      <c r="D330" t="str">
+        <v>易方达中证沪港深500ETF联接发起式C</v>
+      </c>
+      <c r="E330" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F330">
+        <v>52.64</v>
+      </c>
+      <c r="H330">
+        <v>78.42</v>
+      </c>
+      <c r="I330" s="6">
+        <v>78.42</v>
+      </c>
+      <c r="J330" s="6">
+        <v>0</v>
+      </c>
+      <c r="K330" t="str">
+        <v>修改持仓份额为52.64;修改持有收益为-0.29</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B331" t="str">
+        <v/>
+      </c>
+      <c r="C331" t="str">
+        <v>020422</v>
+      </c>
+      <c r="D331" t="str">
+        <v>华夏中证港股通内地金融ETF发起式联接A</v>
+      </c>
+      <c r="E331" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F331">
+        <v>161.37</v>
+      </c>
+      <c r="H331">
+        <v>288.24</v>
+      </c>
+      <c r="I331" s="6">
+        <v>288.24</v>
+      </c>
+      <c r="J331" s="6">
+        <v>0</v>
+      </c>
+      <c r="K331" t="str">
+        <v>修改持仓份额为161.37;修改持有收益为1.64</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B332" t="str">
+        <v/>
+      </c>
+      <c r="C332" t="str">
+        <v>022327</v>
+      </c>
+      <c r="D332" t="str">
+        <v>宏利高端装备股票A</v>
+      </c>
+      <c r="E332" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F332">
+        <v>94.89</v>
+      </c>
+      <c r="H332">
+        <v>139.29</v>
+      </c>
+      <c r="I332" s="6">
+        <v>139.29</v>
+      </c>
+      <c r="J332" s="6">
+        <v>0</v>
+      </c>
+      <c r="K332" t="str">
+        <v>修改持仓份额为94.89;修改持有收益为9.29</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B333" t="str">
+        <v/>
+      </c>
+      <c r="C333" t="str">
+        <v>161022</v>
+      </c>
+      <c r="D333" t="str">
+        <v>富国创业板ETF联接A</v>
+      </c>
+      <c r="E333" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F333">
+        <v>130.56</v>
+      </c>
+      <c r="H333">
+        <v>152.01</v>
+      </c>
+      <c r="I333" s="6">
+        <v>152.01</v>
+      </c>
+      <c r="J333" s="6">
+        <v>0</v>
+      </c>
+      <c r="K333" t="str">
+        <v>修改持仓份额为130.56;修改持有收益为3.71</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B334" t="str">
+        <v/>
+      </c>
+      <c r="C334" t="str">
+        <v>165520</v>
+      </c>
+      <c r="D334" t="str">
+        <v>中信保诚中证800有色指数(LOF)A</v>
+      </c>
+      <c r="E334" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F334">
+        <v>23.57</v>
+      </c>
+      <c r="H334">
+        <v>66.06</v>
+      </c>
+      <c r="I334" s="6">
+        <v>66.06</v>
+      </c>
+      <c r="J334" s="6">
+        <v>0</v>
+      </c>
+      <c r="K334" t="str">
+        <v>修改持仓份额为23.57;修改持有收益为5.80</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B335" t="str">
+        <v/>
+      </c>
+      <c r="C335" t="str">
+        <v>257060</v>
+      </c>
+      <c r="D335" t="str">
+        <v>国联安上证商品ETF联接A</v>
+      </c>
+      <c r="E335" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F335">
+        <v>250.51</v>
+      </c>
+      <c r="H335">
+        <v>374.61</v>
+      </c>
+      <c r="I335" s="6">
+        <v>374.61</v>
+      </c>
+      <c r="J335" s="6">
+        <v>0</v>
+      </c>
+      <c r="K335" t="str">
+        <v>修改持仓份额为250.51;修改持有收益为13.96</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B336" t="str">
+        <v/>
+      </c>
+      <c r="C336" t="str">
+        <v>400032</v>
+      </c>
+      <c r="D336" t="str">
+        <v>东方主题精选混合</v>
+      </c>
+      <c r="E336" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F336">
+        <v>195.86</v>
+      </c>
+      <c r="H336">
+        <v>218.68</v>
+      </c>
+      <c r="I336" s="6">
+        <v>218.68</v>
+      </c>
+      <c r="J336" s="6">
+        <v>0</v>
+      </c>
+      <c r="K336" t="str">
+        <v>修改持仓份额为195.86;修改持有收益为1.27</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B337" t="str">
+        <v/>
+      </c>
+      <c r="C337" t="str">
+        <v>501311</v>
+      </c>
+      <c r="D337" t="str">
+        <v>嘉实恒生港股通新经济指数(LOF)A</v>
+      </c>
+      <c r="E337" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F337">
+        <v>50.46</v>
+      </c>
+      <c r="H337">
+        <v>56.96</v>
+      </c>
+      <c r="I337" s="6">
+        <v>56.96</v>
+      </c>
+      <c r="J337" s="6">
+        <v>0</v>
+      </c>
+      <c r="K337" t="str">
+        <v>修改持仓份额为50.46;修改持有收益为-3.58</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B338" t="str">
+        <v/>
+      </c>
+      <c r="C338" t="str">
+        <v>519180</v>
+      </c>
+      <c r="D338" t="str">
+        <v>万家180指数A</v>
+      </c>
+      <c r="E338" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F338">
+        <v>246.96</v>
+      </c>
+      <c r="H338">
+        <v>288.1</v>
+      </c>
+      <c r="I338" s="6">
+        <v>288.1</v>
+      </c>
+      <c r="J338" s="6">
+        <v>0</v>
+      </c>
+      <c r="K338" t="str">
+        <v>修改持仓份额为246.96;修改持有收益为0.06</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B339" t="str">
+        <v/>
+      </c>
+      <c r="C339" t="str">
+        <v>519196</v>
+      </c>
+      <c r="D339" t="str">
+        <v>万家新兴蓝筹A</v>
+      </c>
+      <c r="E339" t="str">
+        <v>修改持仓</v>
+      </c>
+      <c r="F339">
+        <v>104.74</v>
+      </c>
+      <c r="H339">
+        <v>469.15</v>
+      </c>
+      <c r="I339" s="6">
+        <v>469.15</v>
+      </c>
+      <c r="J339" s="6">
+        <v>0</v>
+      </c>
+      <c r="K339" t="str">
+        <v>修改持仓份额为104.74;修改持有收益为36.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K285"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K339"/>
   </ignoredErrors>
 </worksheet>
 </file>